--- a/tables/registros.xlsx
+++ b/tables/registros.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuário\OneDrive\Área de Trabalho\Registro_pagamento\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projetos Python\Registro_pagamento\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383DEF89-0595-4D30-A64B-162BAB89A4BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806B2E89-6557-43AD-8D86-6005251193BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A28D7D8B-31E8-4B1D-A4D3-D8914A31D18E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A28D7D8B-31E8-4B1D-A4D3-D8914A31D18E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$1634</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Planilha1!$A$1:$H$2493</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="488">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="698">
   <si>
     <t>Auto</t>
   </si>
@@ -56,1453 +56,2083 @@
     <t>index</t>
   </si>
   <si>
-    <t>S000273088</t>
-  </si>
-  <si>
-    <t>00010730028412321</t>
-  </si>
-  <si>
-    <t>50668588690201888</t>
-  </si>
-  <si>
-    <t>S001354783</t>
-  </si>
-  <si>
-    <t>00010730028462344</t>
-  </si>
-  <si>
-    <t>50669642089201838</t>
-  </si>
-  <si>
-    <t>S001700483</t>
-  </si>
-  <si>
-    <t>00010730028772378</t>
-  </si>
-  <si>
-    <t>50669982804201872</t>
-  </si>
-  <si>
-    <t>S001833172</t>
-  </si>
-  <si>
-    <t>00010730028832371</t>
-  </si>
-  <si>
-    <t>50670076118201821</t>
-  </si>
-  <si>
-    <t>S002081828</t>
-  </si>
-  <si>
-    <t>00010730029172391</t>
-  </si>
-  <si>
-    <t>50670404386201848</t>
-  </si>
-  <si>
-    <t>S002286894</t>
-  </si>
-  <si>
-    <t>00010730029192316</t>
-  </si>
-  <si>
-    <t>50670532831201869</t>
-  </si>
-  <si>
-    <t>S002637129</t>
-  </si>
-  <si>
-    <t>00010730029232393</t>
-  </si>
-  <si>
-    <t>50670964180201872</t>
-  </si>
-  <si>
-    <t>S004175444</t>
-  </si>
-  <si>
-    <t>00010730029252319</t>
-  </si>
-  <si>
-    <t>50672435323201813</t>
-  </si>
-  <si>
-    <t>S008223892</t>
-  </si>
-  <si>
-    <t>00010730029392323</t>
-  </si>
-  <si>
-    <t>50676579116201830</t>
-  </si>
-  <si>
-    <t>S009584970</t>
-  </si>
-  <si>
-    <t>00010730029792348</t>
-  </si>
-  <si>
-    <t>50677908732201801</t>
-  </si>
-  <si>
-    <t>S010617457</t>
-  </si>
-  <si>
-    <t>00010730029852341</t>
-  </si>
-  <si>
-    <t>50679023005201843</t>
-  </si>
-  <si>
-    <t>S010730165</t>
-  </si>
-  <si>
-    <t>00010730029872376</t>
-  </si>
-  <si>
-    <t>50679135715201815</t>
-  </si>
-  <si>
-    <t>S009457874</t>
-  </si>
-  <si>
-    <t>00010730052542310</t>
-  </si>
-  <si>
-    <t>50677814362201833</t>
-  </si>
-  <si>
-    <t>S010832130</t>
-  </si>
-  <si>
-    <t>00010730053872313</t>
-  </si>
-  <si>
-    <t>50679237845201891</t>
-  </si>
-  <si>
-    <t>S008681150</t>
-  </si>
-  <si>
-    <t>00010730054142386</t>
-  </si>
-  <si>
-    <t>50677027309201808</t>
-  </si>
-  <si>
-    <t>S009064689</t>
-  </si>
-  <si>
-    <t>00010730054212341</t>
-  </si>
-  <si>
-    <t>50677427439201839</t>
-  </si>
-  <si>
-    <t>B019001394</t>
-  </si>
-  <si>
-    <t>00010730030012032</t>
-  </si>
-  <si>
-    <t>50633086898201864</t>
-  </si>
-  <si>
-    <t>B019001288</t>
-  </si>
-  <si>
-    <t>00010730033642096</t>
-  </si>
-  <si>
-    <t>50632961411201842</t>
-  </si>
-  <si>
-    <t>B017007568</t>
-  </si>
-  <si>
-    <t>00010730043002049</t>
-  </si>
-  <si>
-    <t>50632984043201819</t>
-  </si>
-  <si>
-    <t>B017007946</t>
-  </si>
-  <si>
-    <t>00010730138622010</t>
-  </si>
-  <si>
-    <t>50634437848201840</t>
-  </si>
-  <si>
-    <t>B050009154</t>
-  </si>
-  <si>
-    <t>00010730139512048</t>
-  </si>
-  <si>
-    <t>50634019635201830</t>
-  </si>
-  <si>
-    <t>B017008130</t>
-  </si>
-  <si>
-    <t>00010730157372007</t>
-  </si>
-  <si>
-    <t>50634622788201869</t>
-  </si>
-  <si>
-    <t>B017008311</t>
-  </si>
-  <si>
-    <t>00010730225132061</t>
-  </si>
-  <si>
-    <t>50634893022201867</t>
-  </si>
-  <si>
-    <t>B019003244</t>
-  </si>
-  <si>
-    <t>00010730225652065</t>
-  </si>
-  <si>
-    <t>50634526159201817</t>
-  </si>
-  <si>
-    <t>B017008243</t>
-  </si>
-  <si>
-    <t>00010730357202059</t>
-  </si>
-  <si>
-    <t>50634813824201800</t>
-  </si>
-  <si>
-    <t>B017008269</t>
-  </si>
-  <si>
-    <t>00010730358912041</t>
-  </si>
-  <si>
-    <t>50634845366201860</t>
-  </si>
-  <si>
-    <t>B019002104</t>
-  </si>
-  <si>
-    <t>00010730386531936</t>
-  </si>
-  <si>
-    <t>50633716824201864</t>
-  </si>
-  <si>
-    <t>B017007576</t>
-  </si>
-  <si>
-    <t>00010730467511919</t>
-  </si>
-  <si>
-    <t>50632996094201885</t>
-  </si>
-  <si>
-    <t>B017007738</t>
-  </si>
-  <si>
-    <t>00010730469822067</t>
-  </si>
-  <si>
-    <t>50633326289201853</t>
-  </si>
-  <si>
-    <t>B017007781</t>
-  </si>
-  <si>
-    <t>00010730469832020</t>
-  </si>
-  <si>
-    <t>50633452970201856</t>
-  </si>
-  <si>
-    <t>B017007794</t>
-  </si>
-  <si>
-    <t>00010730469852055</t>
-  </si>
-  <si>
-    <t>50633509574201816</t>
-  </si>
-  <si>
-    <t>B017007795</t>
-  </si>
-  <si>
-    <t>00010730469872081</t>
-  </si>
-  <si>
-    <t>50633509651201820</t>
-  </si>
-  <si>
-    <t>B017007797</t>
-  </si>
-  <si>
-    <t>00010730469882043</t>
-  </si>
-  <si>
-    <t>50633527220201845</t>
-  </si>
-  <si>
-    <t>B017007802</t>
-  </si>
-  <si>
-    <t>00010730469892014</t>
-  </si>
-  <si>
-    <t>50633532297201837</t>
-  </si>
-  <si>
-    <t>B017007627</t>
-  </si>
-  <si>
-    <t>00010730518401988</t>
-  </si>
-  <si>
-    <t>50633104048201855</t>
-  </si>
-  <si>
-    <t>B019001445</t>
-  </si>
-  <si>
-    <t>00010730518431976</t>
-  </si>
-  <si>
-    <t>50633101839201823</t>
-  </si>
-  <si>
-    <t>B017007547</t>
-  </si>
-  <si>
-    <t>00010730519421958</t>
-  </si>
-  <si>
-    <t>50632958604201816</t>
-  </si>
-  <si>
-    <t>B019001289</t>
-  </si>
-  <si>
-    <t>00010730519481934</t>
-  </si>
-  <si>
-    <t>50632961485201889</t>
-  </si>
-  <si>
-    <t>B017007548</t>
-  </si>
-  <si>
-    <t>00010730519531974</t>
-  </si>
-  <si>
-    <t>50632958684201818</t>
-  </si>
-  <si>
-    <t>B018003141</t>
-  </si>
-  <si>
-    <t>00010730507271859</t>
-  </si>
-  <si>
-    <t>50630871022201846</t>
-  </si>
-  <si>
-    <t>B018003117</t>
-  </si>
-  <si>
-    <t>00010730508041806</t>
-  </si>
-  <si>
-    <t>50630852449201845</t>
-  </si>
-  <si>
-    <t>B061092959</t>
-  </si>
-  <si>
-    <t>00010730102432172</t>
-  </si>
-  <si>
-    <t>50635571708201890</t>
-  </si>
-  <si>
-    <t>B061092514</t>
-  </si>
-  <si>
-    <t>00010730102482196</t>
-  </si>
-  <si>
-    <t>50635515414201888</t>
-  </si>
-  <si>
-    <t>B061092961</t>
-  </si>
-  <si>
-    <t>00010730102512109</t>
-  </si>
-  <si>
-    <t>50635572768201820</t>
-  </si>
-  <si>
-    <t>B095009559</t>
-  </si>
-  <si>
-    <t>00010730129842142</t>
-  </si>
-  <si>
-    <t>50635480156201810</t>
-  </si>
-  <si>
-    <t>B059011476</t>
-  </si>
-  <si>
-    <t>00010730149762195</t>
-  </si>
-  <si>
-    <t>50636136206201814</t>
-  </si>
-  <si>
-    <t>B001092595</t>
-  </si>
-  <si>
-    <t>00010730628952075</t>
-  </si>
-  <si>
-    <t>50633791990201840</t>
-  </si>
-  <si>
-    <t>B001092593</t>
-  </si>
-  <si>
-    <t>00010730629002011</t>
-  </si>
-  <si>
-    <t>50633791917201878</t>
-  </si>
-  <si>
-    <t>B001094008</t>
-  </si>
-  <si>
-    <t>00010730647412072</t>
-  </si>
-  <si>
-    <t>50634140574201879</t>
-  </si>
-  <si>
-    <t>B001114500</t>
-  </si>
-  <si>
-    <t>00010730653442018</t>
-  </si>
-  <si>
-    <t>50636336298201822</t>
-  </si>
-  <si>
-    <t>B001112883</t>
-  </si>
-  <si>
-    <t>00010730656272032</t>
-  </si>
-  <si>
-    <t>50636145523201813</t>
-  </si>
-  <si>
-    <t>S009023924</t>
-  </si>
-  <si>
-    <t>00010730151062341</t>
-  </si>
-  <si>
-    <t>50677367943201872</t>
-  </si>
-  <si>
-    <t>S010305150</t>
-  </si>
-  <si>
-    <t>00010730151292346</t>
-  </si>
-  <si>
-    <t>50678709993201821</t>
-  </si>
-  <si>
-    <t>S011282891</t>
-  </si>
-  <si>
-    <t>00010730151312398</t>
-  </si>
-  <si>
-    <t>50679689475201874</t>
-  </si>
-  <si>
-    <t>S007373018</t>
-  </si>
-  <si>
-    <t>00010731037172354</t>
-  </si>
-  <si>
-    <t>50675754749201843</t>
-  </si>
-  <si>
-    <t>S008021563</t>
-  </si>
-  <si>
-    <t>00010731037182317</t>
-  </si>
-  <si>
-    <t>50676389497201867</t>
-  </si>
-  <si>
-    <t>S008315247</t>
-  </si>
-  <si>
-    <t>00010731037502320</t>
-  </si>
-  <si>
-    <t>50676643197201839</t>
-  </si>
-  <si>
-    <t>S008429266</t>
-  </si>
-  <si>
-    <t>00010731037532318</t>
-  </si>
-  <si>
-    <t>50676779972201893</t>
-  </si>
-  <si>
-    <t>S008971890</t>
-  </si>
-  <si>
-    <t>00010731037652305</t>
-  </si>
-  <si>
-    <t>50677290516201899</t>
-  </si>
-  <si>
-    <t>S009655139</t>
-  </si>
-  <si>
-    <t>00010731037672322</t>
-  </si>
-  <si>
-    <t>50677952669201831</t>
-  </si>
-  <si>
-    <t>S009656131</t>
-  </si>
-  <si>
-    <t>00010731037682395</t>
-  </si>
-  <si>
-    <t>50677960304201881</t>
-  </si>
-  <si>
-    <t>S012629495</t>
-  </si>
-  <si>
-    <t>00010731038192324</t>
-  </si>
-  <si>
-    <t>50630409027201934</t>
-  </si>
-  <si>
-    <t>S012667580</t>
-  </si>
-  <si>
-    <t>00010731038232300</t>
-  </si>
-  <si>
-    <t>50630447182201959</t>
-  </si>
-  <si>
-    <t>S012617011</t>
-  </si>
-  <si>
-    <t>00010731038282315</t>
-  </si>
-  <si>
-    <t>50630396540201958</t>
-  </si>
-  <si>
-    <t>S012664898</t>
-  </si>
-  <si>
-    <t>00010731043152386</t>
-  </si>
-  <si>
-    <t>50630444500201920</t>
-  </si>
-  <si>
-    <t>E030804528</t>
-  </si>
-  <si>
-    <t>00010730159092214</t>
-  </si>
-  <si>
-    <t>50665226866201831</t>
-  </si>
-  <si>
-    <t>D011542324</t>
-  </si>
-  <si>
-    <t>00010730159112266</t>
-  </si>
-  <si>
-    <t>50665206034201806</t>
-  </si>
-  <si>
-    <t>D011542287</t>
-  </si>
-  <si>
-    <t>00010730159132291</t>
-  </si>
-  <si>
-    <t>50665205011201876</t>
-  </si>
-  <si>
-    <t>D011542391</t>
-  </si>
-  <si>
-    <t>00010730159152217</t>
-  </si>
-  <si>
-    <t>50665204582201893</t>
-  </si>
-  <si>
-    <t>E030804206</t>
-  </si>
-  <si>
-    <t>00010730159172242</t>
-  </si>
-  <si>
-    <t>50665206232201861</t>
-  </si>
-  <si>
-    <t>E030804602</t>
-  </si>
-  <si>
-    <t>00010730159192278</t>
-  </si>
-  <si>
-    <t>50665206588201803</t>
-  </si>
-  <si>
-    <t>D011541958</t>
-  </si>
-  <si>
-    <t>00010730159212210</t>
-  </si>
-  <si>
-    <t>50665227845201832</t>
-  </si>
-  <si>
-    <t>S007599615</t>
-  </si>
-  <si>
-    <t>00010732281582231</t>
-  </si>
-  <si>
-    <t>50675968618201841</t>
-  </si>
-  <si>
-    <t>S007624855</t>
-  </si>
-  <si>
-    <t>00010732281602282</t>
-  </si>
-  <si>
-    <t>50676018186201816</t>
-  </si>
-  <si>
-    <t>S003754711</t>
-  </si>
-  <si>
-    <t>00010732281612245</t>
-  </si>
-  <si>
-    <t>50672066558201851</t>
-  </si>
-  <si>
-    <t>S007643556</t>
-  </si>
-  <si>
-    <t>00010732281642233</t>
-  </si>
-  <si>
-    <t>50676037792201831</t>
-  </si>
-  <si>
-    <t>S007656124</t>
-  </si>
-  <si>
-    <t>00010732282032293</t>
-  </si>
-  <si>
-    <t>50676056272201827</t>
-  </si>
-  <si>
-    <t>S007679695</t>
-  </si>
-  <si>
-    <t>00010732282152272</t>
-  </si>
-  <si>
-    <t>50676074186201804</t>
-  </si>
-  <si>
-    <t>S007680719</t>
-  </si>
-  <si>
-    <t>00010732282182261</t>
-  </si>
-  <si>
-    <t>50676078989201820</t>
-  </si>
-  <si>
-    <t>S007699126</t>
-  </si>
-  <si>
-    <t>00010732282192223</t>
-  </si>
-  <si>
-    <t>50676092774201811</t>
-  </si>
-  <si>
-    <t>S007840594</t>
-  </si>
-  <si>
-    <t>00010732282212275</t>
-  </si>
-  <si>
-    <t>50676281985201827</t>
-  </si>
-  <si>
-    <t>S007840509</t>
-  </si>
-  <si>
-    <t>00010732282222238</t>
-  </si>
-  <si>
-    <t>50676281745201822</t>
-  </si>
-  <si>
-    <t>S007975567</t>
-  </si>
-  <si>
-    <t>00010732282412282</t>
-  </si>
-  <si>
-    <t>50676358799201893</t>
-  </si>
-  <si>
-    <t>S008232628</t>
-  </si>
-  <si>
-    <t>00010732282452233</t>
-  </si>
-  <si>
-    <t>50676585826201807</t>
-  </si>
-  <si>
-    <t>S007971172</t>
-  </si>
-  <si>
-    <t>00010732282502273</t>
-  </si>
-  <si>
-    <t>50676338170201827</t>
-  </si>
-  <si>
-    <t>S007275869</t>
-  </si>
-  <si>
-    <t>00010732285142243</t>
-  </si>
-  <si>
-    <t>50675675605201821</t>
-  </si>
-  <si>
-    <t>S007320135</t>
-  </si>
-  <si>
-    <t>00010732285152214</t>
-  </si>
-  <si>
-    <t>50675713379201894</t>
-  </si>
-  <si>
-    <t>S007515563</t>
-  </si>
-  <si>
-    <t>00010732285172231</t>
-  </si>
-  <si>
-    <t>50675925760201802</t>
-  </si>
-  <si>
-    <t>S011559587</t>
-  </si>
-  <si>
-    <t>00010732302682271</t>
-  </si>
-  <si>
-    <t>50679966703201835</t>
-  </si>
-  <si>
-    <t>S010163582</t>
-  </si>
-  <si>
-    <t>00010730977162363</t>
-  </si>
-  <si>
-    <t>50678568115201840</t>
-  </si>
-  <si>
-    <t>S010318532</t>
-  </si>
-  <si>
-    <t>00010730977202331</t>
-  </si>
-  <si>
-    <t>50678723477201818</t>
-  </si>
-  <si>
-    <t>S010318224</t>
-  </si>
-  <si>
-    <t>00010730978272324</t>
-  </si>
-  <si>
-    <t>50678723169201884</t>
-  </si>
-  <si>
-    <t>S010539702</t>
-  </si>
-  <si>
-    <t>00010730978302339</t>
-  </si>
-  <si>
-    <t>50678945047201847</t>
-  </si>
-  <si>
-    <t>S011407294</t>
-  </si>
-  <si>
-    <t>00010730983692387</t>
-  </si>
-  <si>
-    <t>50679814019201879</t>
-  </si>
-  <si>
-    <t>S011412393</t>
-  </si>
-  <si>
-    <t>00010730983802310</t>
-  </si>
-  <si>
-    <t>50679819122201813</t>
-  </si>
-  <si>
-    <t>S012136040</t>
-  </si>
-  <si>
-    <t>00010730983982385</t>
-  </si>
-  <si>
-    <t>50680543991201814</t>
-  </si>
-  <si>
-    <t>S012140540</t>
-  </si>
-  <si>
-    <t>00010730984072374</t>
-  </si>
-  <si>
-    <t>50680548491201879</t>
-  </si>
-  <si>
-    <t>S010355803</t>
-  </si>
-  <si>
-    <t>00010730086832302</t>
-  </si>
-  <si>
-    <t>50678760752201876</t>
-  </si>
-  <si>
-    <t>S010355949</t>
-  </si>
-  <si>
-    <t>00010730086842367</t>
-  </si>
-  <si>
-    <t>50678760898201811</t>
-  </si>
-  <si>
-    <t>S004261127</t>
-  </si>
-  <si>
-    <t>00010730497952379</t>
-  </si>
-  <si>
-    <t>50672777064201803</t>
-  </si>
-  <si>
-    <t>S004276139</t>
-  </si>
-  <si>
-    <t>00010730498002315</t>
-  </si>
-  <si>
-    <t>50672824677201839</t>
-  </si>
-  <si>
-    <t>S007772629</t>
-  </si>
-  <si>
-    <t>00010730498022332</t>
-  </si>
-  <si>
-    <t>50676199879201809</t>
-  </si>
-  <si>
-    <t>S007871972</t>
-  </si>
-  <si>
-    <t>00010730498052321</t>
-  </si>
-  <si>
-    <t>50676392486201864</t>
-  </si>
-  <si>
-    <t>S008563492</t>
-  </si>
-  <si>
-    <t>00010730498072356</t>
-  </si>
-  <si>
-    <t>50677133779201800</t>
-  </si>
-  <si>
-    <t>S009373702</t>
-  </si>
-  <si>
-    <t>00010730499512392</t>
-  </si>
-  <si>
-    <t>50677866103201898</t>
-  </si>
-  <si>
-    <t>S010127475</t>
-  </si>
-  <si>
-    <t>00010730499522355</t>
-  </si>
-  <si>
-    <t>50678531997201898</t>
-  </si>
-  <si>
-    <t>S010354508</t>
-  </si>
-  <si>
-    <t>00010730499532318</t>
-  </si>
-  <si>
-    <t>50678759457201877</t>
-  </si>
-  <si>
-    <t>S010604304</t>
-  </si>
-  <si>
-    <t>00010730499552343</t>
-  </si>
-  <si>
-    <t>50679009734201897</t>
-  </si>
-  <si>
-    <t>S011109749</t>
-  </si>
-  <si>
-    <t>00010730499572379</t>
-  </si>
-  <si>
-    <t>50679516074201804</t>
-  </si>
-  <si>
-    <t>S003738232</t>
-  </si>
-  <si>
-    <t>00010730439812331</t>
-  </si>
-  <si>
-    <t>50672193833201816</t>
-  </si>
-  <si>
-    <t>S003738372</t>
-  </si>
-  <si>
-    <t>00010730440042314</t>
-  </si>
-  <si>
-    <t>50672194029201846</t>
-  </si>
-  <si>
-    <t>S005285777</t>
-  </si>
-  <si>
-    <t>00010730441042369</t>
-  </si>
-  <si>
-    <t>50673653567201876</t>
-  </si>
-  <si>
-    <t>S005312704</t>
-  </si>
-  <si>
-    <t>00010730441212388</t>
-  </si>
-  <si>
-    <t>50673741425201865</t>
-  </si>
-  <si>
-    <t>D009552339</t>
-  </si>
-  <si>
-    <t>00010730441352392</t>
-  </si>
-  <si>
-    <t>50660587970201849</t>
-  </si>
-  <si>
-    <t>E026675733</t>
-  </si>
-  <si>
-    <t>00010730441402322</t>
-  </si>
-  <si>
-    <t>50660588039201888</t>
-  </si>
-  <si>
-    <t>S005680744</t>
-  </si>
-  <si>
-    <t>00010730441662316</t>
-  </si>
-  <si>
-    <t>50674080808201845</t>
-  </si>
-  <si>
-    <t>S006318042</t>
-  </si>
-  <si>
-    <t>00010730441802347</t>
-  </si>
-  <si>
-    <t>50674694322201899</t>
-  </si>
-  <si>
-    <t>S006820706</t>
-  </si>
-  <si>
-    <t>00010730442062339</t>
-  </si>
-  <si>
-    <t>50675242465201817</t>
-  </si>
-  <si>
-    <t>S006989164</t>
-  </si>
-  <si>
-    <t>00010730442132302</t>
-  </si>
-  <si>
-    <t>50675385854201828</t>
-  </si>
-  <si>
-    <t>S007425437</t>
-  </si>
-  <si>
-    <t>00010730442192381</t>
-  </si>
-  <si>
-    <t>50675833820201853</t>
-  </si>
-  <si>
-    <t>B028003309</t>
-  </si>
-  <si>
-    <t>00010730338722115</t>
-  </si>
-  <si>
-    <t>50635231883201847</t>
-  </si>
-  <si>
-    <t>B047052504</t>
-  </si>
-  <si>
-    <t>00010730338732170</t>
-  </si>
-  <si>
-    <t>50635281601201852</t>
-  </si>
-  <si>
-    <t>B048037564</t>
-  </si>
-  <si>
-    <t>00010730338742132</t>
-  </si>
-  <si>
-    <t>50635299841201811</t>
-  </si>
-  <si>
-    <t>B047058442</t>
-  </si>
-  <si>
-    <t>00010730418392197</t>
-  </si>
-  <si>
-    <t>50636139296201897</t>
-  </si>
-  <si>
-    <t>B048042277</t>
-  </si>
-  <si>
-    <t>00010730418402176</t>
-  </si>
-  <si>
-    <t>50636164328201892</t>
-  </si>
-  <si>
-    <t>B047050809</t>
-  </si>
-  <si>
-    <t>00010730580112013</t>
-  </si>
-  <si>
-    <t>50635140946201857</t>
-  </si>
-  <si>
-    <t>B008123895</t>
-  </si>
-  <si>
-    <t>00010730195131950</t>
-  </si>
-  <si>
-    <t>50631727017201897</t>
-  </si>
-  <si>
-    <t>B054112381</t>
-  </si>
-  <si>
-    <t>00010730302692119</t>
-  </si>
-  <si>
-    <t>50635349640201864</t>
-  </si>
-  <si>
-    <t>B054116093</t>
-  </si>
-  <si>
-    <t>00010730302702106</t>
-  </si>
-  <si>
-    <t>50635534136201868</t>
-  </si>
-  <si>
-    <t>B054116492</t>
-  </si>
-  <si>
-    <t>00010730302722123</t>
-  </si>
-  <si>
-    <t>50635557978201898</t>
-  </si>
-  <si>
-    <t>B054116920</t>
-  </si>
-  <si>
-    <t>00010730302742159</t>
-  </si>
-  <si>
-    <t>50635598850201884</t>
-  </si>
-  <si>
-    <t>B054118288</t>
-  </si>
-  <si>
-    <t>00010730302762184</t>
-  </si>
-  <si>
-    <t>50635642841201838</t>
-  </si>
-  <si>
-    <t>B054118787</t>
-  </si>
-  <si>
-    <t>00010730302772147</t>
-  </si>
-  <si>
-    <t>50635660268201844</t>
-  </si>
-  <si>
-    <t>B054118923</t>
-  </si>
-  <si>
-    <t>00010730302792172</t>
-  </si>
-  <si>
-    <t>50635664341201857</t>
-  </si>
-  <si>
-    <t>B054116412</t>
-  </si>
-  <si>
-    <t>00010730306212171</t>
-  </si>
-  <si>
-    <t>50635553871201871</t>
-  </si>
-  <si>
-    <t>B054127783</t>
-  </si>
-  <si>
-    <t>00010730306222133</t>
-  </si>
-  <si>
-    <t>50636360141201818</t>
-  </si>
-  <si>
-    <t>B045068189</t>
-  </si>
-  <si>
-    <t>00010730008962180</t>
-  </si>
-  <si>
-    <t>50635638013201803</t>
-  </si>
-  <si>
-    <t>B045056073</t>
-  </si>
-  <si>
-    <t>00010730094782149</t>
-  </si>
-  <si>
-    <t>50634947671201895</t>
-  </si>
-  <si>
-    <t>B046005109</t>
-  </si>
-  <si>
-    <t>00010730094972193</t>
-  </si>
-  <si>
-    <t>50634946470201871</t>
-  </si>
-  <si>
-    <t>B068124139</t>
-  </si>
-  <si>
-    <t>00010730185912142</t>
-  </si>
-  <si>
-    <t>50635027178201847</t>
-  </si>
-  <si>
-    <t>B068124142</t>
-  </si>
-  <si>
-    <t>00010730186052155</t>
-  </si>
-  <si>
-    <t>50635027234201843</t>
-  </si>
-  <si>
-    <t>S010148139</t>
-  </si>
-  <si>
-    <t>00010732159252213</t>
-  </si>
-  <si>
-    <t>50678552665201847</t>
-  </si>
-  <si>
-    <t>D012556350</t>
-  </si>
-  <si>
-    <t>00010732160432211</t>
-  </si>
-  <si>
-    <t>50668079905201874</t>
-  </si>
-  <si>
-    <t>S000778495</t>
-  </si>
-  <si>
-    <t>00010732160442284</t>
-  </si>
-  <si>
-    <t>50669139190201814</t>
-  </si>
-  <si>
-    <t>S001101966</t>
-  </si>
-  <si>
-    <t>00010732160452247</t>
-  </si>
-  <si>
-    <t>50669363789201869</t>
-  </si>
-  <si>
-    <t>S001101919</t>
-  </si>
-  <si>
-    <t>00010732160462218</t>
-  </si>
-  <si>
-    <t>50669363887201804</t>
-  </si>
-  <si>
-    <t>S001194782</t>
-  </si>
-  <si>
-    <t>00010732160472272</t>
-  </si>
-  <si>
-    <t>50669780012201865</t>
-  </si>
-  <si>
-    <t>S001194808</t>
-  </si>
-  <si>
-    <t>00010732160482235</t>
-  </si>
-  <si>
-    <t>50669780080201824</t>
-  </si>
-  <si>
-    <t>S001487686</t>
-  </si>
-  <si>
-    <t>00010732160492206</t>
-  </si>
-  <si>
-    <t>50669937848201848</t>
-  </si>
-  <si>
-    <t>S002092440</t>
-  </si>
-  <si>
-    <t>00010732160502287</t>
-  </si>
-  <si>
-    <t>50670559407201861</t>
-  </si>
-  <si>
-    <t>S008490567</t>
-  </si>
-  <si>
-    <t>00010732160532275</t>
-  </si>
-  <si>
-    <t>50676839161201859</t>
-  </si>
-  <si>
-    <t>S009046499</t>
-  </si>
-  <si>
-    <t>00010732160542238</t>
-  </si>
-  <si>
-    <t>50677411520201805</t>
-  </si>
-  <si>
-    <t>S009267781</t>
-  </si>
-  <si>
-    <t>00010732160552209</t>
-  </si>
-  <si>
-    <t>50677591611201815</t>
-  </si>
-  <si>
-    <t>S009290917</t>
-  </si>
-  <si>
-    <t>00010732160572226</t>
-  </si>
-  <si>
-    <t>50677610945201897</t>
-  </si>
-  <si>
-    <t>S009477628</t>
-  </si>
-  <si>
-    <t>00010732163452281</t>
-  </si>
-  <si>
-    <t>50677808295201818</t>
-  </si>
-  <si>
-    <t>S009476160</t>
-  </si>
-  <si>
-    <t>00010732165902224</t>
-  </si>
-  <si>
-    <t>50677806147201869</t>
-  </si>
-  <si>
-    <t>D012551498</t>
-  </si>
-  <si>
-    <t>00010732166032274</t>
-  </si>
-  <si>
-    <t>50668086845201846</t>
-  </si>
-  <si>
-    <t>S008435861</t>
-  </si>
-  <si>
-    <t>00010732168152242</t>
-  </si>
-  <si>
-    <t>50676863331201816</t>
-  </si>
-  <si>
-    <t>S009446001</t>
-  </si>
-  <si>
-    <t>00010732168162213</t>
-  </si>
-  <si>
-    <t>50677780391201894</t>
-  </si>
-  <si>
-    <t>S010308932</t>
-  </si>
-  <si>
-    <t>00010732168172278</t>
-  </si>
-  <si>
-    <t>50678713775201891</t>
-  </si>
-  <si>
-    <t>S004610916</t>
-  </si>
-  <si>
-    <t>00010731610052260</t>
-  </si>
-  <si>
-    <t>50672999698201815</t>
+    <t>E004167349</t>
+  </si>
+  <si>
+    <t>00010730210442299</t>
+  </si>
+  <si>
+    <t>50633207207201872</t>
+  </si>
+  <si>
+    <t>E005609624</t>
+  </si>
+  <si>
+    <t>00010730210572231</t>
+  </si>
+  <si>
+    <t>50633835811201893</t>
+  </si>
+  <si>
+    <t>E009666801</t>
+  </si>
+  <si>
+    <t>00010730210632233</t>
+  </si>
+  <si>
+    <t>50636063315201805</t>
+  </si>
+  <si>
+    <t>E011214088</t>
+  </si>
+  <si>
+    <t>00010730210692210</t>
+  </si>
+  <si>
+    <t>50636547732201806</t>
+  </si>
+  <si>
+    <t>E005422687</t>
+  </si>
+  <si>
+    <t>00010730211992225</t>
+  </si>
+  <si>
+    <t>50633819880201850</t>
+  </si>
+  <si>
+    <t>D007909161</t>
+  </si>
+  <si>
+    <t>00010730212012275</t>
+  </si>
+  <si>
+    <t>50646292095201806</t>
+  </si>
+  <si>
+    <t>E005607735</t>
+  </si>
+  <si>
+    <t>00010730212072251</t>
+  </si>
+  <si>
+    <t>50633835727201870</t>
+  </si>
+  <si>
+    <t>E004318891</t>
+  </si>
+  <si>
+    <t>00010730350422231</t>
+  </si>
+  <si>
+    <t>50633203550201848</t>
+  </si>
+  <si>
+    <t>E004300979</t>
+  </si>
+  <si>
+    <t>00010730350442267</t>
+  </si>
+  <si>
+    <t>50633195233201841</t>
+  </si>
+  <si>
+    <t>E004894103</t>
+  </si>
+  <si>
+    <t>00010730350462292</t>
+  </si>
+  <si>
+    <t>50633534106201871</t>
+  </si>
+  <si>
+    <t>D003849972</t>
+  </si>
+  <si>
+    <t>00010730350482218</t>
+  </si>
+  <si>
+    <t>50637372134201859</t>
+  </si>
+  <si>
+    <t>E012948225</t>
+  </si>
+  <si>
+    <t>00010730350502260</t>
+  </si>
+  <si>
+    <t>50637397404201834</t>
+  </si>
+  <si>
+    <t>E006956918</t>
+  </si>
+  <si>
+    <t>00010730350522295</t>
+  </si>
+  <si>
+    <t>50634902261201815</t>
+  </si>
+  <si>
+    <t>E006956454</t>
+  </si>
+  <si>
+    <t>00010730350542211</t>
+  </si>
+  <si>
+    <t>50634904665201843</t>
+  </si>
+  <si>
+    <t>E006832969</t>
+  </si>
+  <si>
+    <t>00010730350562246</t>
+  </si>
+  <si>
+    <t>50634810197201847</t>
+  </si>
+  <si>
+    <t>E006594235</t>
+  </si>
+  <si>
+    <t>00010730350582271</t>
+  </si>
+  <si>
+    <t>50634560221201891</t>
+  </si>
+  <si>
+    <t>D001117292</t>
+  </si>
+  <si>
+    <t>00010730363322257</t>
+  </si>
+  <si>
+    <t>50633202865201878</t>
+  </si>
+  <si>
+    <t>D011198127</t>
+  </si>
+  <si>
+    <t>00010730707252181</t>
+  </si>
+  <si>
+    <t>50664892406201813</t>
+  </si>
+  <si>
+    <t>D011340660</t>
+  </si>
+  <si>
+    <t>00010730707262144</t>
+  </si>
+  <si>
+    <t>50664892437201866</t>
+  </si>
+  <si>
+    <t>E031060239</t>
+  </si>
+  <si>
+    <t>00010730068082216</t>
+  </si>
+  <si>
+    <t>50665748589201812</t>
+  </si>
+  <si>
+    <t>E030995592</t>
+  </si>
+  <si>
+    <t>00010730068092289</t>
+  </si>
+  <si>
+    <t>50665748630201851</t>
+  </si>
+  <si>
+    <t>D011565751</t>
+  </si>
+  <si>
+    <t>00010730068102268</t>
+  </si>
+  <si>
+    <t>50665850312201859</t>
+  </si>
+  <si>
+    <t>B056059962</t>
+  </si>
+  <si>
+    <t>00010730250341981</t>
+  </si>
+  <si>
+    <t>50631838351201875</t>
+  </si>
+  <si>
+    <t>B008125690</t>
+  </si>
+  <si>
+    <t>00010730251721915</t>
+  </si>
+  <si>
+    <t>50632096982201804</t>
+  </si>
+  <si>
+    <t>B008124654</t>
+  </si>
+  <si>
+    <t>00010730253471967</t>
+  </si>
+  <si>
+    <t>50631868482201887</t>
+  </si>
+  <si>
+    <t>B047034806</t>
+  </si>
+  <si>
+    <t>00010730261721951</t>
+  </si>
+  <si>
+    <t>50631918191201847</t>
+  </si>
+  <si>
+    <t>B008125084</t>
+  </si>
+  <si>
+    <t>00010730266151940</t>
+  </si>
+  <si>
+    <t>50631954282201846</t>
+  </si>
+  <si>
+    <t>B064115749</t>
+  </si>
+  <si>
+    <t>00010730688131817</t>
+  </si>
+  <si>
+    <t>50630763947201814</t>
+  </si>
+  <si>
+    <t>B056053469</t>
+  </si>
+  <si>
+    <t>00010730688521861</t>
+  </si>
+  <si>
+    <t>50630772107201842</t>
+  </si>
+  <si>
+    <t>B061063748</t>
+  </si>
+  <si>
+    <t>00010730331171962</t>
+  </si>
+  <si>
+    <t>50631478496201811</t>
+  </si>
+  <si>
+    <t>B044030674</t>
+  </si>
+  <si>
+    <t>00010730000831957</t>
+  </si>
+  <si>
+    <t>50632736767201840</t>
+  </si>
+  <si>
+    <t>B044027042</t>
+  </si>
+  <si>
+    <t>00010730547171847</t>
+  </si>
+  <si>
+    <t>50631431559201867</t>
+  </si>
+  <si>
+    <t>S004750691</t>
+  </si>
+  <si>
+    <t>00010731946202216</t>
+  </si>
+  <si>
+    <t>50673114688201805</t>
+  </si>
+  <si>
+    <t>S005040830</t>
+  </si>
+  <si>
+    <t>00010731946212289</t>
+  </si>
+  <si>
+    <t>50673454948201874</t>
+  </si>
+  <si>
+    <t>S005158207</t>
+  </si>
+  <si>
+    <t>00010731946222241</t>
+  </si>
+  <si>
+    <t>50673576026201817</t>
+  </si>
+  <si>
+    <t>S005238056</t>
+  </si>
+  <si>
+    <t>00010731946232212</t>
+  </si>
+  <si>
+    <t>50673686701201815</t>
+  </si>
+  <si>
+    <t>S006737002</t>
+  </si>
+  <si>
+    <t>00010731946802248</t>
+  </si>
+  <si>
+    <t>50675144646201871</t>
+  </si>
+  <si>
+    <t>S007793456</t>
+  </si>
+  <si>
+    <t>00010731950972217</t>
+  </si>
+  <si>
+    <t>50676228268201877</t>
+  </si>
+  <si>
+    <t>S010896980</t>
+  </si>
+  <si>
+    <t>00010731951812213</t>
+  </si>
+  <si>
+    <t>50679302800201803</t>
+  </si>
+  <si>
+    <t>B061093820</t>
+  </si>
+  <si>
+    <t>00010730007992123</t>
+  </si>
+  <si>
+    <t>50635637987201861</t>
+  </si>
+  <si>
+    <t>B002115370</t>
+  </si>
+  <si>
+    <t>00010730014242126</t>
+  </si>
+  <si>
+    <t>50633894139201878</t>
+  </si>
+  <si>
+    <t>B061097195</t>
+  </si>
+  <si>
+    <t>00010730014842158</t>
+  </si>
+  <si>
+    <t>50635970694201893</t>
+  </si>
+  <si>
+    <t>B095008627</t>
+  </si>
+  <si>
+    <t>00010730034042190</t>
+  </si>
+  <si>
+    <t>50634742201201837</t>
+  </si>
+  <si>
+    <t>B061083904</t>
+  </si>
+  <si>
+    <t>00010730034082141</t>
+  </si>
+  <si>
+    <t>50634748113201849</t>
+  </si>
+  <si>
+    <t>B061085816</t>
+  </si>
+  <si>
+    <t>00010730053362111</t>
+  </si>
+  <si>
+    <t>50634939241201808</t>
+  </si>
+  <si>
+    <t>B061085687</t>
+  </si>
+  <si>
+    <t>00010730053402180</t>
+  </si>
+  <si>
+    <t>50634927899201869</t>
+  </si>
+  <si>
+    <t>B002125244</t>
+  </si>
+  <si>
+    <t>00010730053422113</t>
+  </si>
+  <si>
+    <t>50634953867201819</t>
+  </si>
+  <si>
+    <t>B082111498</t>
+  </si>
+  <si>
+    <t>00010730053442131</t>
+  </si>
+  <si>
+    <t>50634960793201877</t>
+  </si>
+  <si>
+    <t>B061086211</t>
+  </si>
+  <si>
+    <t>00010730053452101</t>
+  </si>
+  <si>
+    <t>50634977400201864</t>
+  </si>
+  <si>
+    <t>B061098350</t>
+  </si>
+  <si>
+    <t>00010730077392150</t>
+  </si>
+  <si>
+    <t>50636136938201804</t>
+  </si>
+  <si>
+    <t>B068103239</t>
+  </si>
+  <si>
+    <t>00010730049021746</t>
+  </si>
+  <si>
+    <t>50600013676201648</t>
+  </si>
+  <si>
+    <t>C002006792</t>
+  </si>
+  <si>
+    <t>00010730049061705</t>
+  </si>
+  <si>
+    <t>50600065325201451</t>
+  </si>
+  <si>
+    <t>B010113552</t>
+  </si>
+  <si>
+    <t>00010730049141725</t>
+  </si>
+  <si>
+    <t>50600067281201401</t>
+  </si>
+  <si>
+    <t>B002090442</t>
+  </si>
+  <si>
+    <t>00010730049181786</t>
+  </si>
+  <si>
+    <t>50600013704201627</t>
+  </si>
+  <si>
+    <t>B010148167</t>
+  </si>
+  <si>
+    <t>00010730049201728</t>
+  </si>
+  <si>
+    <t>50600013743201624</t>
+  </si>
+  <si>
+    <t>B010145187</t>
+  </si>
+  <si>
+    <t>00010730049231716</t>
+  </si>
+  <si>
+    <t>50600013748201657</t>
+  </si>
+  <si>
+    <t>B010166239</t>
+  </si>
+  <si>
+    <t>00010730049551711</t>
+  </si>
+  <si>
+    <t>50600013731201608</t>
+  </si>
+  <si>
+    <t>C010101886</t>
+  </si>
+  <si>
+    <t>00010730049561775</t>
+  </si>
+  <si>
+    <t>50600013286201678</t>
+  </si>
+  <si>
+    <t>B002055173</t>
+  </si>
+  <si>
+    <t>00010730049701704</t>
+  </si>
+  <si>
+    <t>50600008603201553</t>
+  </si>
+  <si>
+    <t>B010145804</t>
+  </si>
+  <si>
+    <t>00010730050461746</t>
+  </si>
+  <si>
+    <t>50600013702201638</t>
+  </si>
+  <si>
+    <t>B010159250</t>
+  </si>
+  <si>
+    <t>00010730050491734</t>
+  </si>
+  <si>
+    <t>50600013615201681</t>
+  </si>
+  <si>
+    <t>B010150337</t>
+  </si>
+  <si>
+    <t>00010730050511786</t>
+  </si>
+  <si>
+    <t>50600013891201649</t>
+  </si>
+  <si>
+    <t>B010145051</t>
+  </si>
+  <si>
+    <t>00010730050531710</t>
+  </si>
+  <si>
+    <t>50600013636201604</t>
+  </si>
+  <si>
+    <t>B010157661</t>
+  </si>
+  <si>
+    <t>00010730050541774</t>
+  </si>
+  <si>
+    <t>50600013675201601</t>
+  </si>
+  <si>
+    <t>B010145141</t>
+  </si>
+  <si>
+    <t>00010730050881796</t>
+  </si>
+  <si>
+    <t>50600013639201630</t>
+  </si>
+  <si>
+    <t>B068062041</t>
+  </si>
+  <si>
+    <t>00010730051001790</t>
+  </si>
+  <si>
+    <t>50600066700201480</t>
+  </si>
+  <si>
+    <t>B002100795</t>
+  </si>
+  <si>
+    <t>00010730051121779</t>
+  </si>
+  <si>
+    <t>50600013742201680</t>
+  </si>
+  <si>
+    <t>C068006264</t>
+  </si>
+  <si>
+    <t>00010730051131731</t>
+  </si>
+  <si>
+    <t>50600013414201683</t>
+  </si>
+  <si>
+    <t>B067075199</t>
+  </si>
+  <si>
+    <t>00010730051151767</t>
+  </si>
+  <si>
+    <t>50600013883201601</t>
+  </si>
+  <si>
+    <t>B010145418</t>
+  </si>
+  <si>
+    <t>00010730051161720</t>
+  </si>
+  <si>
+    <t>50600013638201695</t>
+  </si>
+  <si>
+    <t>C002011782</t>
+  </si>
+  <si>
+    <t>00010730051501768</t>
+  </si>
+  <si>
+    <t>50600013400201660</t>
+  </si>
+  <si>
+    <t>B002073729</t>
+  </si>
+  <si>
+    <t>00010730051951704</t>
+  </si>
+  <si>
+    <t>50600065559201406</t>
+  </si>
+  <si>
+    <t>B068049269</t>
+  </si>
+  <si>
+    <t>00010730051971721</t>
+  </si>
+  <si>
+    <t>50600065669201460</t>
+  </si>
+  <si>
+    <t>B068052196</t>
+  </si>
+  <si>
+    <t>00010730053601719</t>
+  </si>
+  <si>
+    <t>50600066157201411</t>
+  </si>
+  <si>
+    <t>B010148693</t>
+  </si>
+  <si>
+    <t>00010730054221766</t>
+  </si>
+  <si>
+    <t>50600013726201697</t>
+  </si>
+  <si>
+    <t>B002127704</t>
+  </si>
+  <si>
+    <t>00010730323662146</t>
+  </si>
+  <si>
+    <t>50635196321201840</t>
+  </si>
+  <si>
+    <t>B002128241</t>
+  </si>
+  <si>
+    <t>00010730323672117</t>
+  </si>
+  <si>
+    <t>50635243744201866</t>
+  </si>
+  <si>
+    <t>B002128245</t>
+  </si>
+  <si>
+    <t>00010730323682171</t>
+  </si>
+  <si>
+    <t>50635244036201842</t>
+  </si>
+  <si>
+    <t>B002128246</t>
+  </si>
+  <si>
+    <t>00010730323692134</t>
+  </si>
+  <si>
+    <t>50635244045201833</t>
+  </si>
+  <si>
+    <t>B002128551</t>
+  </si>
+  <si>
+    <t>00010730323702113</t>
+  </si>
+  <si>
+    <t>50635273076201800</t>
+  </si>
+  <si>
+    <t>B002128610</t>
+  </si>
+  <si>
+    <t>00010730323712186</t>
+  </si>
+  <si>
+    <t>50635277894201873</t>
+  </si>
+  <si>
+    <t>B002128877</t>
+  </si>
+  <si>
+    <t>00010730323722149</t>
+  </si>
+  <si>
+    <t>50635303694201883</t>
+  </si>
+  <si>
+    <t>B002129018</t>
+  </si>
+  <si>
+    <t>00010730323742174</t>
+  </si>
+  <si>
+    <t>50635317602201842</t>
+  </si>
+  <si>
+    <t>B002129021</t>
+  </si>
+  <si>
+    <t>00010730327302187</t>
+  </si>
+  <si>
+    <t>50635317883201833</t>
+  </si>
+  <si>
+    <t>B002130546</t>
+  </si>
+  <si>
+    <t>00010730327312140</t>
+  </si>
+  <si>
+    <t>50635477546201802</t>
+  </si>
+  <si>
+    <t>B002131471</t>
+  </si>
+  <si>
+    <t>00010730327332175</t>
+  </si>
+  <si>
+    <t>50635592609201841</t>
+  </si>
+  <si>
+    <t>B005066825</t>
+  </si>
+  <si>
+    <t>00010730327342138</t>
+  </si>
+  <si>
+    <t>50635477297201847</t>
+  </si>
+  <si>
+    <t>B002137675</t>
+  </si>
+  <si>
+    <t>00010730379052114</t>
+  </si>
+  <si>
+    <t>50636161074201851</t>
+  </si>
+  <si>
+    <t>B002137683</t>
+  </si>
+  <si>
+    <t>00010730379082102</t>
+  </si>
+  <si>
+    <t>50636161972201817</t>
+  </si>
+  <si>
+    <t>B002138099</t>
+  </si>
+  <si>
+    <t>00010730379102146</t>
+  </si>
+  <si>
+    <t>50636205381201851</t>
+  </si>
+  <si>
+    <t>B002138101</t>
+  </si>
+  <si>
+    <t>00010730379142105</t>
+  </si>
+  <si>
+    <t>50636205410201884</t>
+  </si>
+  <si>
+    <t>B002138195</t>
+  </si>
+  <si>
+    <t>00010730379172195</t>
+  </si>
+  <si>
+    <t>50636214102201840</t>
+  </si>
+  <si>
+    <t>B005072648</t>
+  </si>
+  <si>
+    <t>00010730379222125</t>
+  </si>
+  <si>
+    <t>50636160932201840</t>
+  </si>
+  <si>
+    <t>B002133872</t>
+  </si>
+  <si>
+    <t>00010730395492174</t>
+  </si>
+  <si>
+    <t>50635762235201838</t>
+  </si>
+  <si>
+    <t>B002134032</t>
+  </si>
+  <si>
+    <t>00010730395512116</t>
+  </si>
+  <si>
+    <t>50635791270201864</t>
+  </si>
+  <si>
+    <t>B002134033</t>
+  </si>
+  <si>
+    <t>00010730395532141</t>
+  </si>
+  <si>
+    <t>50635791277201886</t>
+  </si>
+  <si>
+    <t>B002134484</t>
+  </si>
+  <si>
+    <t>00010730395542112</t>
+  </si>
+  <si>
+    <t>50635852752201806</t>
+  </si>
+  <si>
+    <t>B002134989</t>
+  </si>
+  <si>
+    <t>00010730395572101</t>
+  </si>
+  <si>
+    <t>50635891672201868</t>
+  </si>
+  <si>
+    <t>B002134992</t>
+  </si>
+  <si>
+    <t>00010730395592128</t>
+  </si>
+  <si>
+    <t>50635891801201818</t>
+  </si>
+  <si>
+    <t>B005069554</t>
+  </si>
+  <si>
+    <t>00010730397912120</t>
+  </si>
+  <si>
+    <t>50635790372201862</t>
+  </si>
+  <si>
+    <t>B005070688</t>
+  </si>
+  <si>
+    <t>00010730397922192</t>
+  </si>
+  <si>
+    <t>50635917753201803</t>
+  </si>
+  <si>
+    <t>B087074041</t>
+  </si>
+  <si>
+    <t>00010730397932155</t>
+  </si>
+  <si>
+    <t>50635795913201849</t>
+  </si>
+  <si>
+    <t>B002136218</t>
+  </si>
+  <si>
+    <t>00010730397952181</t>
+  </si>
+  <si>
+    <t>50635994473201819</t>
+  </si>
+  <si>
+    <t>B005071429</t>
+  </si>
+  <si>
+    <t>00010730397962143</t>
+  </si>
+  <si>
+    <t>50635994266201856</t>
+  </si>
+  <si>
+    <t>S006146515</t>
+  </si>
+  <si>
+    <t>00010730490542370</t>
+  </si>
+  <si>
+    <t>50674538039201888</t>
+  </si>
+  <si>
+    <t>S006761707</t>
+  </si>
+  <si>
+    <t>00010730490552332</t>
+  </si>
+  <si>
+    <t>50675160165201811</t>
+  </si>
+  <si>
+    <t>S007537402</t>
+  </si>
+  <si>
+    <t>00010730490562303</t>
+  </si>
+  <si>
+    <t>50675940750201899</t>
+  </si>
+  <si>
+    <t>S007642590</t>
+  </si>
+  <si>
+    <t>00010730490572368</t>
+  </si>
+  <si>
+    <t>50676033652201893</t>
+  </si>
+  <si>
+    <t>S007644114</t>
+  </si>
+  <si>
+    <t>00010730490582321</t>
+  </si>
+  <si>
+    <t>50676039828201811</t>
+  </si>
+  <si>
+    <t>S007680223</t>
+  </si>
+  <si>
+    <t>00010730490592393</t>
+  </si>
+  <si>
+    <t>50676076498201844</t>
+  </si>
+  <si>
+    <t>S007795792</t>
+  </si>
+  <si>
+    <t>00010730490602372</t>
+  </si>
+  <si>
+    <t>50676209149201815</t>
+  </si>
+  <si>
+    <t>S008017553</t>
+  </si>
+  <si>
+    <t>00010730490612335</t>
+  </si>
+  <si>
+    <t>50676405697201874</t>
+  </si>
+  <si>
+    <t>S008133424</t>
+  </si>
+  <si>
+    <t>00010730490622306</t>
+  </si>
+  <si>
+    <t>50676446227201861</t>
+  </si>
+  <si>
+    <t>S008205652</t>
+  </si>
+  <si>
+    <t>00010730490642323</t>
+  </si>
+  <si>
+    <t>50676563925201820</t>
+  </si>
+  <si>
+    <t>S004120154</t>
+  </si>
+  <si>
+    <t>00010730490792309</t>
+  </si>
+  <si>
+    <t>50672398201201839</t>
+  </si>
+  <si>
+    <t>S008796020</t>
+  </si>
+  <si>
+    <t>00010730491592338</t>
+  </si>
+  <si>
+    <t>50677136978201861</t>
+  </si>
+  <si>
+    <t>S008866784</t>
+  </si>
+  <si>
+    <t>00010730491602317</t>
+  </si>
+  <si>
+    <t>50677200247201887</t>
+  </si>
+  <si>
+    <t>S008858450</t>
+  </si>
+  <si>
+    <t>00010730491612380</t>
+  </si>
+  <si>
+    <t>50677190223201811</t>
+  </si>
+  <si>
+    <t>S008942709</t>
+  </si>
+  <si>
+    <t>00010730491632313</t>
+  </si>
+  <si>
+    <t>50677305728201888</t>
+  </si>
+  <si>
+    <t>S009023947</t>
+  </si>
+  <si>
+    <t>00010730491642378</t>
+  </si>
+  <si>
+    <t>50677368298201813</t>
+  </si>
+  <si>
+    <t>S009107104</t>
+  </si>
+  <si>
+    <t>00010730491652331</t>
+  </si>
+  <si>
+    <t>50677451381201844</t>
+  </si>
+  <si>
+    <t>S009369591</t>
+  </si>
+  <si>
+    <t>00010730491662301</t>
+  </si>
+  <si>
+    <t>50677711362201882</t>
+  </si>
+  <si>
+    <t>S009444997</t>
+  </si>
+  <si>
+    <t>00010730491682329</t>
+  </si>
+  <si>
+    <t>50677796371201835</t>
+  </si>
+  <si>
+    <t>S009570917</t>
+  </si>
+  <si>
+    <t>00010730491702371</t>
+  </si>
+  <si>
+    <t>50677879852201885</t>
+  </si>
+  <si>
+    <t>S010679867</t>
+  </si>
+  <si>
+    <t>00010730491772310</t>
+  </si>
+  <si>
+    <t>50679085417201877</t>
+  </si>
+  <si>
+    <t>S006016984</t>
+  </si>
+  <si>
+    <t>00010730494452367</t>
+  </si>
+  <si>
+    <t>50674429600201839</t>
+  </si>
+  <si>
+    <t>E030090717</t>
+  </si>
+  <si>
+    <t>00010730750162156</t>
+  </si>
+  <si>
+    <t>50664920835201880</t>
+  </si>
+  <si>
+    <t>E030089043</t>
+  </si>
+  <si>
+    <t>00010730750202123</t>
+  </si>
+  <si>
+    <t>50664889642201844</t>
+  </si>
+  <si>
+    <t>B071077191</t>
+  </si>
+  <si>
+    <t>00010730351102117</t>
+  </si>
+  <si>
+    <t>50635925321201868</t>
+  </si>
+  <si>
+    <t>B071077419</t>
+  </si>
+  <si>
+    <t>00010730351112171</t>
+  </si>
+  <si>
+    <t>50635952400201841</t>
+  </si>
+  <si>
+    <t>B087074630</t>
+  </si>
+  <si>
+    <t>00010730351122134</t>
+  </si>
+  <si>
+    <t>50635886338201892</t>
+  </si>
+  <si>
+    <t>B087075067</t>
+  </si>
+  <si>
+    <t>00010730351132105</t>
+  </si>
+  <si>
+    <t>50635956720201871</t>
+  </si>
+  <si>
+    <t>B089044148</t>
+  </si>
+  <si>
+    <t>00010730351142160</t>
+  </si>
+  <si>
+    <t>50635924107201894</t>
+  </si>
+  <si>
+    <t>B069093442</t>
+  </si>
+  <si>
+    <t>00010730351152122</t>
+  </si>
+  <si>
+    <t>50635983200201831</t>
+  </si>
+  <si>
+    <t>B069093753</t>
+  </si>
+  <si>
+    <t>00010730351162195</t>
+  </si>
+  <si>
+    <t>50636008775201862</t>
+  </si>
+  <si>
+    <t>B069093756</t>
+  </si>
+  <si>
+    <t>00010730351172158</t>
+  </si>
+  <si>
+    <t>50636009069201838</t>
+  </si>
+  <si>
+    <t>B069093763</t>
+  </si>
+  <si>
+    <t>00010730351182111</t>
+  </si>
+  <si>
+    <t>50636009585201862</t>
+  </si>
+  <si>
+    <t>B069093900</t>
+  </si>
+  <si>
+    <t>00010730351192183</t>
+  </si>
+  <si>
+    <t>50636022129201816</t>
+  </si>
+  <si>
+    <t>B069093932</t>
+  </si>
+  <si>
+    <t>00010730351202162</t>
+  </si>
+  <si>
+    <t>50636026860201811</t>
+  </si>
+  <si>
+    <t>B013069108</t>
+  </si>
+  <si>
+    <t>00010730351212125</t>
+  </si>
+  <si>
+    <t>50636085788201855</t>
+  </si>
+  <si>
+    <t>B013069295</t>
+  </si>
+  <si>
+    <t>00010730351222198</t>
+  </si>
+  <si>
+    <t>50636117902201813</t>
+  </si>
+  <si>
+    <t>B013069723</t>
+  </si>
+  <si>
+    <t>00010730351232151</t>
+  </si>
+  <si>
+    <t>50636202961201896</t>
+  </si>
+  <si>
+    <t>B013069940</t>
+  </si>
+  <si>
+    <t>00010730351242113</t>
+  </si>
+  <si>
+    <t>50636228824201881</t>
+  </si>
+  <si>
+    <t>B038023383</t>
+  </si>
+  <si>
+    <t>00010730351252186</t>
+  </si>
+  <si>
+    <t>50636143026201881</t>
+  </si>
+  <si>
+    <t>B064166730</t>
+  </si>
+  <si>
+    <t>00010730351262149</t>
+  </si>
+  <si>
+    <t>50636046684201825</t>
+  </si>
+  <si>
+    <t>B064166915</t>
+  </si>
+  <si>
+    <t>00010730351272110</t>
+  </si>
+  <si>
+    <t>50636068151201802</t>
+  </si>
+  <si>
+    <t>B064168423</t>
+  </si>
+  <si>
+    <t>00010730351282174</t>
+  </si>
+  <si>
+    <t>50636223388201854</t>
+  </si>
+  <si>
+    <t>B064168531</t>
+  </si>
+  <si>
+    <t>00010730351292137</t>
+  </si>
+  <si>
+    <t>50636229532201866</t>
+  </si>
+  <si>
+    <t>B069094353</t>
+  </si>
+  <si>
+    <t>00010730351302116</t>
+  </si>
+  <si>
+    <t>50636077566201869</t>
+  </si>
+  <si>
+    <t>B069094364</t>
+  </si>
+  <si>
+    <t>00010730351312189</t>
+  </si>
+  <si>
+    <t>50636078075201835</t>
+  </si>
+  <si>
+    <t>B069094440</t>
+  </si>
+  <si>
+    <t>00010730355212111</t>
+  </si>
+  <si>
+    <t>50636082144201813</t>
+  </si>
+  <si>
+    <t>B069094480</t>
+  </si>
+  <si>
+    <t>00010730355222176</t>
+  </si>
+  <si>
+    <t>50636085584201814</t>
+  </si>
+  <si>
+    <t>B069094927</t>
+  </si>
+  <si>
+    <t>00010730355232139</t>
+  </si>
+  <si>
+    <t>50636123013201895</t>
+  </si>
+  <si>
+    <t>B069094958</t>
+  </si>
+  <si>
+    <t>00010730355242100</t>
+  </si>
+  <si>
+    <t>50636126551201831</t>
+  </si>
+  <si>
+    <t>B069094968</t>
+  </si>
+  <si>
+    <t>00010730355252164</t>
+  </si>
+  <si>
+    <t>50636127405201823</t>
+  </si>
+  <si>
+    <t>B069095277</t>
+  </si>
+  <si>
+    <t>00010730355262127</t>
+  </si>
+  <si>
+    <t>50636154194201800</t>
+  </si>
+  <si>
+    <t>B069095446</t>
+  </si>
+  <si>
+    <t>00010730355272190</t>
+  </si>
+  <si>
+    <t>50636169054201828</t>
+  </si>
+  <si>
+    <t>B069095547</t>
+  </si>
+  <si>
+    <t>00010730355282152</t>
+  </si>
+  <si>
+    <t>50636177004201814</t>
+  </si>
+  <si>
+    <t>B069095617</t>
+  </si>
+  <si>
+    <t>00010730355292115</t>
+  </si>
+  <si>
+    <t>50636180091201897</t>
+  </si>
+  <si>
+    <t>B069095684</t>
+  </si>
+  <si>
+    <t>00010730355302102</t>
+  </si>
+  <si>
+    <t>50636187483201887</t>
+  </si>
+  <si>
+    <t>B069095833</t>
+  </si>
+  <si>
+    <t>00010730355312167</t>
+  </si>
+  <si>
+    <t>50636199296201846</t>
+  </si>
+  <si>
+    <t>B069095834</t>
+  </si>
+  <si>
+    <t>00010730355322120</t>
+  </si>
+  <si>
+    <t>50636199310201810</t>
+  </si>
+  <si>
+    <t>B069095844</t>
+  </si>
+  <si>
+    <t>00010730355332192</t>
+  </si>
+  <si>
+    <t>50636200057201846</t>
+  </si>
+  <si>
+    <t>B069095856</t>
+  </si>
+  <si>
+    <t>00010730355342155</t>
+  </si>
+  <si>
+    <t>50636201168201870</t>
+  </si>
+  <si>
+    <t>B070067803</t>
+  </si>
+  <si>
+    <t>00010730355352118</t>
+  </si>
+  <si>
+    <t>50636108741201877</t>
+  </si>
+  <si>
+    <t>B070067804</t>
+  </si>
+  <si>
+    <t>00010730355362181</t>
+  </si>
+  <si>
+    <t>50636108792201807</t>
+  </si>
+  <si>
+    <t>B070068095</t>
+  </si>
+  <si>
+    <t>00010730355372143</t>
+  </si>
+  <si>
+    <t>50636182616201829</t>
+  </si>
+  <si>
+    <t>B070068172</t>
+  </si>
+  <si>
+    <t>00010730355382114</t>
+  </si>
+  <si>
+    <t>50636200572201826</t>
+  </si>
+  <si>
+    <t>B070068191</t>
+  </si>
+  <si>
+    <t>00010730355392179</t>
+  </si>
+  <si>
+    <t>50636203289201856</t>
+  </si>
+  <si>
+    <t>B070068214</t>
+  </si>
+  <si>
+    <t>00010730355402158</t>
+  </si>
+  <si>
+    <t>50636206369201863</t>
+  </si>
+  <si>
+    <t>B070068218</t>
+  </si>
+  <si>
+    <t>00010730355412111</t>
+  </si>
+  <si>
+    <t>50636206948201814</t>
+  </si>
+  <si>
+    <t>B070068261</t>
+  </si>
+  <si>
+    <t>00010730355422183</t>
+  </si>
+  <si>
+    <t>50636214282201860</t>
+  </si>
+  <si>
+    <t>B070068381</t>
+  </si>
+  <si>
+    <t>00010730357732104</t>
+  </si>
+  <si>
+    <t>50636238275201853</t>
+  </si>
+  <si>
+    <t>B070068435</t>
+  </si>
+  <si>
+    <t>00010730357752121</t>
+  </si>
+  <si>
+    <t>50636244703201887</t>
+  </si>
+  <si>
+    <t>B070068541</t>
+  </si>
+  <si>
+    <t>00010730357772157</t>
+  </si>
+  <si>
+    <t>50636259892201892</t>
+  </si>
+  <si>
+    <t>B070068566</t>
+  </si>
+  <si>
+    <t>00010730357802161</t>
+  </si>
+  <si>
+    <t>50636265455201816</t>
+  </si>
+  <si>
+    <t>B070068669</t>
+  </si>
+  <si>
+    <t>00010730357832150</t>
+  </si>
+  <si>
+    <t>50636283732201864</t>
+  </si>
+  <si>
+    <t>B070068813</t>
+  </si>
+  <si>
+    <t>00010730357852185</t>
+  </si>
+  <si>
+    <t>50636305480201831</t>
+  </si>
+  <si>
+    <t>B070068815</t>
+  </si>
+  <si>
+    <t>00010730357882173</t>
+  </si>
+  <si>
+    <t>50636305510201818</t>
+  </si>
+  <si>
+    <t>B070068885</t>
+  </si>
+  <si>
+    <t>00010730357902115</t>
+  </si>
+  <si>
+    <t>50636316744201882</t>
+  </si>
+  <si>
+    <t>B071078435</t>
+  </si>
+  <si>
+    <t>00010730357922141</t>
+  </si>
+  <si>
+    <t>50636089125201818</t>
+  </si>
+  <si>
+    <t>B071079098</t>
+  </si>
+  <si>
+    <t>00010730357952139</t>
+  </si>
+  <si>
+    <t>50636173847201841</t>
+  </si>
+  <si>
+    <t>B074022287</t>
+  </si>
+  <si>
+    <t>00010730357972164</t>
+  </si>
+  <si>
+    <t>50636157757201811</t>
+  </si>
+  <si>
+    <t>B087075664</t>
+  </si>
+  <si>
+    <t>00010730357992190</t>
+  </si>
+  <si>
+    <t>50636096666201894</t>
+  </si>
+  <si>
+    <t>B087075863</t>
+  </si>
+  <si>
+    <t>00010730358022101</t>
+  </si>
+  <si>
+    <t>50636140321201885</t>
+  </si>
+  <si>
+    <t>B087076645</t>
+  </si>
+  <si>
+    <t>00010730358042128</t>
+  </si>
+  <si>
+    <t>50636265120201890</t>
+  </si>
+  <si>
+    <t>B010202749</t>
+  </si>
+  <si>
+    <t>00010730387752138</t>
+  </si>
+  <si>
+    <t>50635765607201888</t>
+  </si>
+  <si>
+    <t>B013067406</t>
+  </si>
+  <si>
+    <t>00010730387762109</t>
+  </si>
+  <si>
+    <t>50635751089201815</t>
+  </si>
+  <si>
+    <t>B013068521</t>
+  </si>
+  <si>
+    <t>00010730387772163</t>
+  </si>
+  <si>
+    <t>50635980320201886</t>
+  </si>
+  <si>
+    <t>B013068555</t>
+  </si>
+  <si>
+    <t>00010730387782126</t>
+  </si>
+  <si>
+    <t>50635985184201811</t>
+  </si>
+  <si>
+    <t>B064163057</t>
+  </si>
+  <si>
+    <t>00010730387802178</t>
+  </si>
+  <si>
+    <t>50635722269201890</t>
+  </si>
+  <si>
+    <t>B064163058</t>
+  </si>
+  <si>
+    <t>00010730387812131</t>
+  </si>
+  <si>
+    <t>50635722290201895</t>
+  </si>
+  <si>
+    <t>B064163960</t>
+  </si>
+  <si>
+    <t>00010730387832166</t>
+  </si>
+  <si>
+    <t>50635780859201837</t>
+  </si>
+  <si>
+    <t>B064164220</t>
+  </si>
+  <si>
+    <t>00010730387842129</t>
+  </si>
+  <si>
+    <t>50635807381201808</t>
+  </si>
+  <si>
+    <t>B064164669</t>
+  </si>
+  <si>
+    <t>00010730391132149</t>
+  </si>
+  <si>
+    <t>50635851149201807</t>
+  </si>
+  <si>
+    <t>B064164675</t>
+  </si>
+  <si>
+    <t>00010730391142110</t>
+  </si>
+  <si>
+    <t>50635851328201836</t>
+  </si>
+  <si>
+    <t>B090301465</t>
+  </si>
+  <si>
+    <t>00010730072652307</t>
+  </si>
+  <si>
+    <t>50672386826201858</t>
+  </si>
+  <si>
+    <t>B001092869</t>
+  </si>
+  <si>
+    <t>00010730464442045</t>
+  </si>
+  <si>
+    <t>50633828014201850</t>
+  </si>
+  <si>
+    <t>B001092973</t>
+  </si>
+  <si>
+    <t>00010730464712018</t>
+  </si>
+  <si>
+    <t>50633838786201808</t>
+  </si>
+  <si>
+    <t>B001093606</t>
+  </si>
+  <si>
+    <t>00010730465202021</t>
+  </si>
+  <si>
+    <t>50634017212201885</t>
+  </si>
+  <si>
+    <t>B001088141</t>
+  </si>
+  <si>
+    <t>00010730465382097</t>
+  </si>
+  <si>
+    <t>50632756141201850</t>
+  </si>
+  <si>
+    <t>B001097140</t>
+  </si>
+  <si>
+    <t>00010730489762035</t>
+  </si>
+  <si>
+    <t>50634613329201894</t>
+  </si>
+  <si>
+    <t>B097020049</t>
+  </si>
+  <si>
+    <t>00010730507261896</t>
+  </si>
+  <si>
+    <t>50630857096201870</t>
+  </si>
+  <si>
+    <t>B097020040</t>
+  </si>
+  <si>
+    <t>00010730508971889</t>
+  </si>
+  <si>
+    <t>50630856101201827</t>
+  </si>
+  <si>
+    <t>B001078155</t>
+  </si>
+  <si>
+    <t>00010730509311815</t>
+  </si>
+  <si>
+    <t>50630844086201874</t>
+  </si>
+  <si>
+    <t>B097020075</t>
+  </si>
+  <si>
+    <t>00010730509361839</t>
+  </si>
+  <si>
+    <t>50630858197201868</t>
+  </si>
+  <si>
+    <t>B001078072</t>
+  </si>
+  <si>
+    <t>00010730509441867</t>
+  </si>
+  <si>
+    <t>50630840142201800</t>
+  </si>
+  <si>
+    <t>B001077987</t>
+  </si>
+  <si>
+    <t>00010730509591834</t>
+  </si>
+  <si>
+    <t>50630836607201810</t>
+  </si>
+  <si>
+    <t>B001077996</t>
+  </si>
+  <si>
+    <t>00010730509631810</t>
+  </si>
+  <si>
+    <t>50630836914201809</t>
+  </si>
+  <si>
+    <t>B001078421</t>
+  </si>
+  <si>
+    <t>00010730509701877</t>
+  </si>
+  <si>
+    <t>50630857250201811</t>
+  </si>
+  <si>
+    <t>B001077945</t>
+  </si>
+  <si>
+    <t>00010730510371826</t>
+  </si>
+  <si>
+    <t>50630834158201875</t>
+  </si>
+  <si>
+    <t>B001077926</t>
+  </si>
+  <si>
+    <t>00010730510901817</t>
+  </si>
+  <si>
+    <t>50630833297201881</t>
+  </si>
+  <si>
+    <t>B001078071</t>
+  </si>
+  <si>
+    <t>00010730515821811</t>
+  </si>
+  <si>
+    <t>50630840057201833</t>
+  </si>
+  <si>
+    <t>B097037024</t>
+  </si>
+  <si>
+    <t>00010730538392011</t>
+  </si>
+  <si>
+    <t>50635323637201811</t>
+  </si>
+  <si>
+    <t>B001092288</t>
+  </si>
+  <si>
+    <t>00010730616982110</t>
+  </si>
+  <si>
+    <t>50633742547201845</t>
+  </si>
+  <si>
+    <t>B001092317</t>
+  </si>
+  <si>
+    <t>00010730617002160</t>
+  </si>
+  <si>
+    <t>50633747516201881</t>
+  </si>
+  <si>
+    <t>D011222930</t>
+  </si>
+  <si>
+    <t>00010730736712161</t>
+  </si>
+  <si>
+    <t>50664947665201881</t>
+  </si>
+  <si>
+    <t>D010530076</t>
+  </si>
+  <si>
+    <t>00010730166372251</t>
+  </si>
+  <si>
+    <t>50662987282201865</t>
+  </si>
+  <si>
+    <t>E030640811</t>
+  </si>
+  <si>
+    <t>00010730166392287</t>
+  </si>
+  <si>
+    <t>50665475330201847</t>
+  </si>
+  <si>
+    <t>E028734110</t>
+  </si>
+  <si>
+    <t>00010730166412229</t>
+  </si>
+  <si>
+    <t>50662989251201849</t>
+  </si>
+  <si>
+    <t>E030641116</t>
+  </si>
+  <si>
+    <t>00010730166442217</t>
+  </si>
+  <si>
+    <t>50665443591201806</t>
+  </si>
+  <si>
+    <t>G003913254</t>
+  </si>
+  <si>
+    <t>00010730170232213</t>
+  </si>
+  <si>
+    <t>50665388908201826</t>
+  </si>
+  <si>
+    <t>B056061272</t>
+  </si>
+  <si>
+    <t>00010730575681803</t>
+  </si>
+  <si>
+    <t>50632138853201892</t>
+  </si>
+  <si>
+    <t>B008125668</t>
+  </si>
+  <si>
+    <t>00010730581401833</t>
+  </si>
+  <si>
+    <t>50632094271201897</t>
+  </si>
+  <si>
+    <t>B098010768</t>
+  </si>
+  <si>
+    <t>00010730604082101</t>
+  </si>
+  <si>
+    <t>50633426074201831</t>
+  </si>
+  <si>
+    <t>B044035820</t>
+  </si>
+  <si>
+    <t>00010730096142074</t>
+  </si>
+  <si>
+    <t>50634165328201820</t>
+  </si>
+  <si>
+    <t>B008139206</t>
+  </si>
+  <si>
+    <t>00010730374461946</t>
+  </si>
+  <si>
+    <t>50633733077201829</t>
+  </si>
+  <si>
+    <t>B008139378</t>
+  </si>
+  <si>
+    <t>00010730376791994</t>
+  </si>
+  <si>
+    <t>50633747016201849</t>
+  </si>
+  <si>
+    <t>B044041959</t>
+  </si>
+  <si>
+    <t>00010730503861911</t>
+  </si>
+  <si>
+    <t>50635002768201867</t>
+  </si>
+  <si>
+    <t>B047029233</t>
+  </si>
+  <si>
+    <t>00010730672912113</t>
+  </si>
+  <si>
+    <t>50630867833201842</t>
+  </si>
+  <si>
+    <t>B047028835</t>
+  </si>
+  <si>
+    <t>00010730672942101</t>
+  </si>
+  <si>
+    <t>50630846415201811</t>
   </si>
 </sst>
 </file>
@@ -1867,22 +2497,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720D66B9-C9B6-4AD3-BFB3-BEA1077C0438}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:E232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E162"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1899,12 +2529,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>6</v>
@@ -1913,12 +2546,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>9</v>
@@ -1927,12 +2563,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -1941,12 +2580,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>15</v>
@@ -1955,12 +2597,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
       <c r="B6" t="s">
         <v>17</v>
       </c>
       <c r="C6" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>18</v>
@@ -1969,12 +2614,15 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
       <c r="B7" t="s">
         <v>20</v>
       </c>
       <c r="C7" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>21</v>
@@ -1983,12 +2631,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>24</v>
@@ -1997,12 +2648,15 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
       <c r="B9" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>27</v>
@@ -2011,12 +2665,15 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
       <c r="B10" t="s">
         <v>29</v>
       </c>
       <c r="C10" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>30</v>
@@ -2025,12 +2682,15 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
       <c r="B11" t="s">
         <v>32</v>
       </c>
       <c r="C11" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>33</v>
@@ -2039,12 +2699,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>36</v>
@@ -2053,12 +2716,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -2067,12 +2733,15 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>42</v>
@@ -2081,12 +2750,15 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
       <c r="B15" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>45</v>
@@ -2095,12 +2767,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
       <c r="C16" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>48</v>
@@ -2109,12 +2784,15 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
       <c r="B17" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>51</v>
@@ -2123,12 +2801,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
       <c r="B18" t="s">
         <v>53</v>
       </c>
       <c r="C18" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>54</v>
@@ -2137,12 +2818,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
       <c r="B19" t="s">
         <v>56</v>
       </c>
       <c r="C19" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>57</v>
@@ -2151,12 +2835,15 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
       <c r="B20" t="s">
         <v>59</v>
       </c>
       <c r="C20" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>60</v>
@@ -2165,12 +2852,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
       <c r="B21" t="s">
         <v>62</v>
       </c>
       <c r="C21" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>63</v>
@@ -2179,12 +2869,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
       <c r="B22" t="s">
         <v>65</v>
       </c>
       <c r="C22" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>66</v>
@@ -2193,12 +2886,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
       <c r="B23" t="s">
         <v>68</v>
       </c>
       <c r="C23" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>69</v>
@@ -2207,12 +2903,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
       <c r="B24" t="s">
         <v>71</v>
       </c>
       <c r="C24" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>72</v>
@@ -2221,12 +2920,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
       <c r="C25" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>75</v>
@@ -2235,12 +2937,15 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
       <c r="B26" t="s">
         <v>77</v>
       </c>
       <c r="C26" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>78</v>
@@ -2249,12 +2954,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
       <c r="B27" t="s">
         <v>80</v>
       </c>
       <c r="C27" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>81</v>
@@ -2263,12 +2971,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
       <c r="B28" t="s">
         <v>83</v>
       </c>
       <c r="C28" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>84</v>
@@ -2277,12 +2988,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
       <c r="B29" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>87</v>
@@ -2291,12 +3005,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
       <c r="B30" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>90</v>
@@ -2305,12 +3022,15 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
       <c r="B31" t="s">
         <v>92</v>
       </c>
       <c r="C31" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>93</v>
@@ -2319,12 +3039,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
       <c r="B32" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>96</v>
@@ -2333,12 +3056,15 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
       <c r="B33" t="s">
         <v>98</v>
       </c>
       <c r="C33" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>99</v>
@@ -2347,12 +3073,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
       <c r="B34" t="s">
         <v>101</v>
       </c>
       <c r="C34" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>102</v>
@@ -2361,12 +3090,15 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
       <c r="B35" t="s">
         <v>104</v>
       </c>
       <c r="C35" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>105</v>
@@ -2375,12 +3107,15 @@
         <v>106</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
       <c r="B36" t="s">
         <v>107</v>
       </c>
       <c r="C36" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>108</v>
@@ -2389,12 +3124,15 @@
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
       <c r="B37" t="s">
         <v>110</v>
       </c>
       <c r="C37" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>111</v>
@@ -2403,12 +3141,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
       <c r="B38" t="s">
         <v>113</v>
       </c>
       <c r="C38" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>114</v>
@@ -2417,12 +3158,15 @@
         <v>115</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
       <c r="B39" t="s">
         <v>116</v>
       </c>
       <c r="C39" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>117</v>
@@ -2431,12 +3175,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
       <c r="B40" t="s">
         <v>119</v>
       </c>
       <c r="C40" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>120</v>
@@ -2445,12 +3192,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
       <c r="B41" t="s">
         <v>122</v>
       </c>
       <c r="C41" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>123</v>
@@ -2459,12 +3209,15 @@
         <v>124</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
       <c r="B42" t="s">
         <v>125</v>
       </c>
       <c r="C42" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>126</v>
@@ -2473,12 +3226,15 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
       <c r="B43" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>129</v>
@@ -2487,12 +3243,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
       <c r="B44" t="s">
         <v>131</v>
       </c>
       <c r="C44" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>132</v>
@@ -2501,12 +3260,15 @@
         <v>133</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
       <c r="B45" t="s">
         <v>134</v>
       </c>
       <c r="C45" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>135</v>
@@ -2515,12 +3277,15 @@
         <v>136</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
       <c r="C46" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>138</v>
@@ -2529,12 +3294,15 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
       <c r="B47" t="s">
         <v>140</v>
       </c>
       <c r="C47" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>141</v>
@@ -2543,12 +3311,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
       <c r="B48" t="s">
         <v>143</v>
       </c>
       <c r="C48" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>144</v>
@@ -2557,12 +3328,15 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
       <c r="B49" t="s">
         <v>146</v>
       </c>
       <c r="C49" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>147</v>
@@ -2571,12 +3345,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
       <c r="B50" t="s">
         <v>149</v>
       </c>
       <c r="C50" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>150</v>
@@ -2585,12 +3362,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
       <c r="B51" t="s">
         <v>152</v>
       </c>
       <c r="C51" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>153</v>
@@ -2599,12 +3379,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
       <c r="B52" t="s">
         <v>155</v>
       </c>
       <c r="C52" s="1">
-        <v>45282</v>
+        <v>45153</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>156</v>
@@ -2613,12 +3396,15 @@
         <v>157</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
       <c r="B53" t="s">
         <v>158</v>
       </c>
       <c r="C53" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>159</v>
@@ -2627,12 +3413,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
       <c r="B54" t="s">
         <v>161</v>
       </c>
       <c r="C54" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>162</v>
@@ -2641,12 +3430,15 @@
         <v>163</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
       <c r="B55" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>165</v>
@@ -2655,12 +3447,15 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
       <c r="B56" t="s">
         <v>167</v>
       </c>
       <c r="C56" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>168</v>
@@ -2669,12 +3464,15 @@
         <v>169</v>
       </c>
     </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
       <c r="B57" t="s">
         <v>170</v>
       </c>
       <c r="C57" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>171</v>
@@ -2683,12 +3481,15 @@
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
       <c r="B58" t="s">
         <v>173</v>
       </c>
       <c r="C58" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>174</v>
@@ -2697,12 +3498,15 @@
         <v>175</v>
       </c>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" t="s">
         <v>176</v>
       </c>
       <c r="C59" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>177</v>
@@ -2711,12 +3515,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
       <c r="B60" t="s">
         <v>179</v>
       </c>
       <c r="C60" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>180</v>
@@ -2725,12 +3532,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
       <c r="B61" t="s">
         <v>182</v>
       </c>
       <c r="C61" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>183</v>
@@ -2739,12 +3549,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
       <c r="B62" t="s">
         <v>185</v>
       </c>
       <c r="C62" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>186</v>
@@ -2753,12 +3566,15 @@
         <v>187</v>
       </c>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
       <c r="B63" t="s">
         <v>188</v>
       </c>
       <c r="C63" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>189</v>
@@ -2767,12 +3583,15 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
       <c r="B64" t="s">
         <v>191</v>
       </c>
       <c r="C64" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>192</v>
@@ -2781,12 +3600,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
       <c r="B65" t="s">
         <v>194</v>
       </c>
       <c r="C65" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>195</v>
@@ -2795,12 +3617,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
       <c r="B66" t="s">
         <v>197</v>
       </c>
       <c r="C66" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>198</v>
@@ -2809,12 +3634,15 @@
         <v>199</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
       <c r="B67" t="s">
         <v>200</v>
       </c>
       <c r="C67" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>201</v>
@@ -2823,12 +3651,15 @@
         <v>202</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
       <c r="B68" t="s">
         <v>203</v>
       </c>
       <c r="C68" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>204</v>
@@ -2837,12 +3668,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
       <c r="B69" t="s">
         <v>206</v>
       </c>
       <c r="C69" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>207</v>
@@ -2851,12 +3685,15 @@
         <v>208</v>
       </c>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
       <c r="B70" t="s">
         <v>209</v>
       </c>
       <c r="C70" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>210</v>
@@ -2865,12 +3702,15 @@
         <v>211</v>
       </c>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
       <c r="B71" t="s">
         <v>212</v>
       </c>
       <c r="C71" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>213</v>
@@ -2879,12 +3719,15 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
       <c r="B72" t="s">
         <v>215</v>
       </c>
       <c r="C72" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>216</v>
@@ -2893,12 +3736,15 @@
         <v>217</v>
       </c>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
       <c r="B73" t="s">
         <v>218</v>
       </c>
       <c r="C73" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>219</v>
@@ -2907,12 +3753,15 @@
         <v>220</v>
       </c>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
       <c r="B74" t="s">
         <v>221</v>
       </c>
       <c r="C74" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>222</v>
@@ -2921,12 +3770,15 @@
         <v>223</v>
       </c>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
       <c r="B75" t="s">
         <v>224</v>
       </c>
       <c r="C75" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>225</v>
@@ -2935,12 +3787,15 @@
         <v>226</v>
       </c>
     </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
       <c r="B76" t="s">
         <v>227</v>
       </c>
       <c r="C76" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>228</v>
@@ -2949,12 +3804,15 @@
         <v>229</v>
       </c>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
       <c r="B77" t="s">
         <v>230</v>
       </c>
       <c r="C77" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>231</v>
@@ -2963,12 +3821,15 @@
         <v>232</v>
       </c>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
       <c r="B78" t="s">
         <v>233</v>
       </c>
       <c r="C78" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>234</v>
@@ -2977,12 +3838,15 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
       <c r="B79" t="s">
         <v>236</v>
       </c>
       <c r="C79" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>237</v>
@@ -2991,12 +3855,15 @@
         <v>238</v>
       </c>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
       <c r="B80" t="s">
         <v>239</v>
       </c>
       <c r="C80" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>240</v>
@@ -3005,12 +3872,15 @@
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
       <c r="B81" t="s">
         <v>242</v>
       </c>
       <c r="C81" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>243</v>
@@ -3019,12 +3889,15 @@
         <v>244</v>
       </c>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
       <c r="B82" t="s">
         <v>245</v>
       </c>
       <c r="C82" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>246</v>
@@ -3033,12 +3906,15 @@
         <v>247</v>
       </c>
     </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
       <c r="B83" t="s">
         <v>248</v>
       </c>
       <c r="C83" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>249</v>
@@ -3047,12 +3923,15 @@
         <v>250</v>
       </c>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
       <c r="B84" t="s">
         <v>251</v>
       </c>
       <c r="C84" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>252</v>
@@ -3061,12 +3940,15 @@
         <v>253</v>
       </c>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
       <c r="B85" t="s">
         <v>254</v>
       </c>
       <c r="C85" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>255</v>
@@ -3075,12 +3957,15 @@
         <v>256</v>
       </c>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
       <c r="B86" t="s">
         <v>257</v>
       </c>
       <c r="C86" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>258</v>
@@ -3089,12 +3974,15 @@
         <v>259</v>
       </c>
     </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
       <c r="B87" t="s">
         <v>260</v>
       </c>
       <c r="C87" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>261</v>
@@ -3103,12 +3991,15 @@
         <v>262</v>
       </c>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
       <c r="B88" t="s">
         <v>263</v>
       </c>
       <c r="C88" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>264</v>
@@ -3117,12 +4008,15 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
       <c r="B89" t="s">
         <v>266</v>
       </c>
       <c r="C89" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>267</v>
@@ -3131,12 +4025,15 @@
         <v>268</v>
       </c>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
       <c r="B90" t="s">
         <v>269</v>
       </c>
       <c r="C90" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>270</v>
@@ -3145,12 +4042,15 @@
         <v>271</v>
       </c>
     </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
       <c r="B91" t="s">
         <v>272</v>
       </c>
       <c r="C91" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>273</v>
@@ -3159,12 +4059,15 @@
         <v>274</v>
       </c>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
       <c r="B92" t="s">
         <v>275</v>
       </c>
       <c r="C92" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>276</v>
@@ -3173,12 +4076,15 @@
         <v>277</v>
       </c>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
       <c r="B93" t="s">
         <v>278</v>
       </c>
       <c r="C93" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>279</v>
@@ -3187,12 +4093,15 @@
         <v>280</v>
       </c>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
       <c r="B94" t="s">
         <v>281</v>
       </c>
       <c r="C94" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>282</v>
@@ -3201,12 +4110,15 @@
         <v>283</v>
       </c>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
       <c r="B95" t="s">
         <v>284</v>
       </c>
       <c r="C95" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>285</v>
@@ -3215,12 +4127,15 @@
         <v>286</v>
       </c>
     </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
       <c r="B96" t="s">
         <v>287</v>
       </c>
       <c r="C96" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>288</v>
@@ -3229,12 +4144,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
       <c r="B97" t="s">
         <v>290</v>
       </c>
       <c r="C97" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>291</v>
@@ -3243,12 +4161,15 @@
         <v>292</v>
       </c>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
       <c r="B98" t="s">
         <v>293</v>
       </c>
       <c r="C98" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>294</v>
@@ -3257,12 +4178,15 @@
         <v>295</v>
       </c>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
       <c r="B99" t="s">
         <v>296</v>
       </c>
       <c r="C99" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>297</v>
@@ -3271,12 +4195,15 @@
         <v>298</v>
       </c>
     </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
       <c r="B100" t="s">
         <v>299</v>
       </c>
       <c r="C100" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>300</v>
@@ -3285,12 +4212,15 @@
         <v>301</v>
       </c>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
       <c r="B101" t="s">
         <v>302</v>
       </c>
       <c r="C101" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>303</v>
@@ -3299,12 +4229,15 @@
         <v>304</v>
       </c>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
       <c r="B102" t="s">
         <v>305</v>
       </c>
       <c r="C102" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>306</v>
@@ -3313,12 +4246,15 @@
         <v>307</v>
       </c>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
       <c r="B103" t="s">
         <v>308</v>
       </c>
       <c r="C103" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D103" s="2" t="s">
         <v>309</v>
@@ -3327,12 +4263,15 @@
         <v>310</v>
       </c>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
       <c r="B104" t="s">
         <v>311</v>
       </c>
       <c r="C104" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>312</v>
@@ -3341,12 +4280,15 @@
         <v>313</v>
       </c>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
       <c r="B105" t="s">
         <v>314</v>
       </c>
       <c r="C105" s="1">
-        <v>45283</v>
+        <v>45153</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>315</v>
@@ -3355,12 +4297,15 @@
         <v>316</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
       <c r="B106" t="s">
         <v>317</v>
       </c>
       <c r="C106" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>318</v>
@@ -3369,12 +4314,15 @@
         <v>319</v>
       </c>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
       <c r="B107" t="s">
         <v>320</v>
       </c>
       <c r="C107" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>321</v>
@@ -3383,12 +4331,15 @@
         <v>322</v>
       </c>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
       <c r="B108" t="s">
         <v>323</v>
       </c>
       <c r="C108" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>324</v>
@@ -3397,12 +4348,15 @@
         <v>325</v>
       </c>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
       <c r="B109" t="s">
         <v>326</v>
       </c>
       <c r="C109" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>327</v>
@@ -3411,12 +4365,15 @@
         <v>328</v>
       </c>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
       <c r="B110" t="s">
         <v>329</v>
       </c>
       <c r="C110" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>330</v>
@@ -3425,12 +4382,15 @@
         <v>331</v>
       </c>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
       <c r="B111" t="s">
         <v>332</v>
       </c>
       <c r="C111" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>333</v>
@@ -3439,12 +4399,15 @@
         <v>334</v>
       </c>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
       <c r="B112" t="s">
         <v>335</v>
       </c>
       <c r="C112" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>336</v>
@@ -3453,12 +4416,15 @@
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
       <c r="B113" t="s">
         <v>338</v>
       </c>
       <c r="C113" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>339</v>
@@ -3467,12 +4433,15 @@
         <v>340</v>
       </c>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
       <c r="B114" t="s">
         <v>341</v>
       </c>
       <c r="C114" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>342</v>
@@ -3481,12 +4450,15 @@
         <v>343</v>
       </c>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
       <c r="B115" t="s">
         <v>344</v>
       </c>
       <c r="C115" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>345</v>
@@ -3495,12 +4467,15 @@
         <v>346</v>
       </c>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
       <c r="B116" t="s">
         <v>347</v>
       </c>
       <c r="C116" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>348</v>
@@ -3509,12 +4484,15 @@
         <v>349</v>
       </c>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
       <c r="B117" t="s">
         <v>350</v>
       </c>
       <c r="C117" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D117" s="2" t="s">
         <v>351</v>
@@ -3523,12 +4501,15 @@
         <v>352</v>
       </c>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
       <c r="B118" t="s">
         <v>353</v>
       </c>
       <c r="C118" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>354</v>
@@ -3537,12 +4518,15 @@
         <v>355</v>
       </c>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
       <c r="B119" t="s">
         <v>356</v>
       </c>
       <c r="C119" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D119" s="2" t="s">
         <v>357</v>
@@ -3551,12 +4535,15 @@
         <v>358</v>
       </c>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
       <c r="B120" t="s">
         <v>359</v>
       </c>
       <c r="C120" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>360</v>
@@ -3565,12 +4552,15 @@
         <v>361</v>
       </c>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
       <c r="B121" t="s">
         <v>362</v>
       </c>
       <c r="C121" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>363</v>
@@ -3579,12 +4569,15 @@
         <v>364</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
       <c r="B122" t="s">
         <v>365</v>
       </c>
       <c r="C122" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>366</v>
@@ -3593,12 +4586,15 @@
         <v>367</v>
       </c>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
       <c r="B123" t="s">
         <v>368</v>
       </c>
       <c r="C123" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>369</v>
@@ -3607,12 +4603,15 @@
         <v>370</v>
       </c>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
       <c r="B124" t="s">
         <v>371</v>
       </c>
       <c r="C124" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>372</v>
@@ -3621,12 +4620,15 @@
         <v>373</v>
       </c>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
       <c r="B125" t="s">
         <v>374</v>
       </c>
       <c r="C125" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>375</v>
@@ -3635,12 +4637,15 @@
         <v>376</v>
       </c>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
       <c r="B126" t="s">
         <v>377</v>
       </c>
       <c r="C126" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>378</v>
@@ -3649,12 +4654,15 @@
         <v>379</v>
       </c>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
       <c r="B127" t="s">
         <v>380</v>
       </c>
       <c r="C127" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>381</v>
@@ -3663,12 +4671,15 @@
         <v>382</v>
       </c>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
       <c r="B128" t="s">
         <v>383</v>
       </c>
       <c r="C128" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>384</v>
@@ -3677,12 +4688,15 @@
         <v>385</v>
       </c>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
       <c r="B129" t="s">
         <v>386</v>
       </c>
       <c r="C129" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>387</v>
@@ -3691,12 +4705,15 @@
         <v>388</v>
       </c>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
       <c r="B130" t="s">
         <v>389</v>
       </c>
       <c r="C130" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D130" s="2" t="s">
         <v>390</v>
@@ -3705,12 +4722,15 @@
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
       <c r="B131" t="s">
         <v>392</v>
       </c>
       <c r="C131" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>393</v>
@@ -3719,12 +4739,15 @@
         <v>394</v>
       </c>
     </row>
-    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
       <c r="B132" t="s">
         <v>395</v>
       </c>
       <c r="C132" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>396</v>
@@ -3733,12 +4756,15 @@
         <v>397</v>
       </c>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
       <c r="B133" t="s">
         <v>398</v>
       </c>
       <c r="C133" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>399</v>
@@ -3747,12 +4773,15 @@
         <v>400</v>
       </c>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
       <c r="B134" t="s">
         <v>401</v>
       </c>
       <c r="C134" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>402</v>
@@ -3761,12 +4790,15 @@
         <v>403</v>
       </c>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
       <c r="B135" t="s">
         <v>404</v>
       </c>
       <c r="C135" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>405</v>
@@ -3775,12 +4807,15 @@
         <v>406</v>
       </c>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
       <c r="B136" t="s">
         <v>407</v>
       </c>
       <c r="C136" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>408</v>
@@ -3789,12 +4824,15 @@
         <v>409</v>
       </c>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
       <c r="B137" t="s">
         <v>410</v>
       </c>
       <c r="C137" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>411</v>
@@ -3803,12 +4841,15 @@
         <v>412</v>
       </c>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
       <c r="B138" t="s">
         <v>413</v>
       </c>
       <c r="C138" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>414</v>
@@ -3817,12 +4858,15 @@
         <v>415</v>
       </c>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
       <c r="B139" t="s">
         <v>416</v>
       </c>
       <c r="C139" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>417</v>
@@ -3831,12 +4875,15 @@
         <v>418</v>
       </c>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
       <c r="B140" t="s">
         <v>419</v>
       </c>
       <c r="C140" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>420</v>
@@ -3845,12 +4892,15 @@
         <v>421</v>
       </c>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
       <c r="B141" t="s">
         <v>422</v>
       </c>
       <c r="C141" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>423</v>
@@ -3859,12 +4909,15 @@
         <v>424</v>
       </c>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
       <c r="B142" t="s">
         <v>425</v>
       </c>
       <c r="C142" s="1">
-        <v>45283</v>
+        <v>45154</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>426</v>
@@ -3873,12 +4926,15 @@
         <v>427</v>
       </c>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
       <c r="B143" t="s">
         <v>428</v>
       </c>
       <c r="C143" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>429</v>
@@ -3887,12 +4943,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
       <c r="B144" t="s">
         <v>431</v>
       </c>
       <c r="C144" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>432</v>
@@ -3901,12 +4960,15 @@
         <v>433</v>
       </c>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
       <c r="B145" t="s">
         <v>434</v>
       </c>
       <c r="C145" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>435</v>
@@ -3915,12 +4977,15 @@
         <v>436</v>
       </c>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
       <c r="B146" t="s">
         <v>437</v>
       </c>
       <c r="C146" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>438</v>
@@ -3929,12 +4994,15 @@
         <v>439</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
       <c r="B147" t="s">
         <v>440</v>
       </c>
       <c r="C147" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>441</v>
@@ -3943,12 +5011,15 @@
         <v>442</v>
       </c>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
       <c r="B148" t="s">
         <v>443</v>
       </c>
       <c r="C148" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>444</v>
@@ -3957,12 +5028,15 @@
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
       <c r="B149" t="s">
         <v>446</v>
       </c>
       <c r="C149" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>447</v>
@@ -3971,12 +5045,15 @@
         <v>448</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
       <c r="B150" t="s">
         <v>449</v>
       </c>
       <c r="C150" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>450</v>
@@ -3985,12 +5062,15 @@
         <v>451</v>
       </c>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
       <c r="B151" t="s">
         <v>452</v>
       </c>
       <c r="C151" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>453</v>
@@ -3999,12 +5079,15 @@
         <v>454</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
       <c r="B152" t="s">
         <v>455</v>
       </c>
       <c r="C152" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>456</v>
@@ -4013,12 +5096,15 @@
         <v>457</v>
       </c>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
       <c r="B153" t="s">
         <v>458</v>
       </c>
       <c r="C153" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>459</v>
@@ -4027,12 +5113,15 @@
         <v>460</v>
       </c>
     </row>
-    <row r="154" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
       <c r="B154" t="s">
         <v>461</v>
       </c>
       <c r="C154" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>462</v>
@@ -4041,12 +5130,15 @@
         <v>463</v>
       </c>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
       <c r="B155" t="s">
         <v>464</v>
       </c>
       <c r="C155" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>465</v>
@@ -4055,12 +5147,15 @@
         <v>466</v>
       </c>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
       <c r="B156" t="s">
         <v>467</v>
       </c>
       <c r="C156" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D156" s="2" t="s">
         <v>468</v>
@@ -4069,12 +5164,15 @@
         <v>469</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
       <c r="B157" t="s">
         <v>470</v>
       </c>
       <c r="C157" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>471</v>
@@ -4083,12 +5181,15 @@
         <v>472</v>
       </c>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
       <c r="B158" t="s">
         <v>473</v>
       </c>
       <c r="C158" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>474</v>
@@ -4097,12 +5198,15 @@
         <v>475</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
       <c r="B159" t="s">
         <v>476</v>
       </c>
       <c r="C159" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>477</v>
@@ -4111,12 +5215,15 @@
         <v>478</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
       <c r="B160" t="s">
         <v>479</v>
       </c>
       <c r="C160" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>480</v>
@@ -4125,12 +5232,15 @@
         <v>481</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
       <c r="B161" t="s">
         <v>482</v>
       </c>
       <c r="C161" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>483</v>
@@ -4139,12 +5249,15 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
       <c r="B162" t="s">
         <v>485</v>
       </c>
       <c r="C162" s="1">
-        <v>45286</v>
+        <v>45154</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>486</v>
@@ -4153,9 +5266,1199 @@
         <v>487</v>
       </c>
     </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>488</v>
+      </c>
+      <c r="C163" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>491</v>
+      </c>
+      <c r="C164" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>494</v>
+      </c>
+      <c r="C165" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>497</v>
+      </c>
+      <c r="C166" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>500</v>
+      </c>
+      <c r="C167" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="E167" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>503</v>
+      </c>
+      <c r="C168" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="E168" s="2" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>506</v>
+      </c>
+      <c r="C169" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="E169" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>509</v>
+      </c>
+      <c r="C170" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>512</v>
+      </c>
+      <c r="C171" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>515</v>
+      </c>
+      <c r="C172" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>516</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>518</v>
+      </c>
+      <c r="C173" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>521</v>
+      </c>
+      <c r="C174" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="E174" s="2" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>524</v>
+      </c>
+      <c r="C175" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>527</v>
+      </c>
+      <c r="C176" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>530</v>
+      </c>
+      <c r="C177" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>533</v>
+      </c>
+      <c r="C178" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>536</v>
+      </c>
+      <c r="C179" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>539</v>
+      </c>
+      <c r="C180" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="E180" s="2" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>542</v>
+      </c>
+      <c r="C181" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>545</v>
+      </c>
+      <c r="C182" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>548</v>
+      </c>
+      <c r="C183" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>551</v>
+      </c>
+      <c r="C184" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>554</v>
+      </c>
+      <c r="C185" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="E185" s="2" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>557</v>
+      </c>
+      <c r="C186" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>560</v>
+      </c>
+      <c r="C187" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>563</v>
+      </c>
+      <c r="C188" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>566</v>
+      </c>
+      <c r="C189" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>569</v>
+      </c>
+      <c r="C190" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>572</v>
+      </c>
+      <c r="C191" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>575</v>
+      </c>
+      <c r="C192" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>578</v>
+      </c>
+      <c r="C193" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="E193" s="2" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>581</v>
+      </c>
+      <c r="C194" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="E194" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>584</v>
+      </c>
+      <c r="C195" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="E195" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>587</v>
+      </c>
+      <c r="C196" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="E196" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>590</v>
+      </c>
+      <c r="C197" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E197" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>593</v>
+      </c>
+      <c r="C198" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E198" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>596</v>
+      </c>
+      <c r="C199" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="E199" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>599</v>
+      </c>
+      <c r="C200" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>600</v>
+      </c>
+      <c r="E200" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>602</v>
+      </c>
+      <c r="C201" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E201" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>605</v>
+      </c>
+      <c r="C202" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="E202" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>608</v>
+      </c>
+      <c r="C203" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="E203" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>611</v>
+      </c>
+      <c r="C204" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>612</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>614</v>
+      </c>
+      <c r="C205" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="E205" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>617</v>
+      </c>
+      <c r="C206" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>618</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>206</v>
+      </c>
+      <c r="B207" t="s">
+        <v>620</v>
+      </c>
+      <c r="C207" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>207</v>
+      </c>
+      <c r="B208" t="s">
+        <v>623</v>
+      </c>
+      <c r="C208" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>208</v>
+      </c>
+      <c r="B209" t="s">
+        <v>626</v>
+      </c>
+      <c r="C209" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>627</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>209</v>
+      </c>
+      <c r="B210" t="s">
+        <v>629</v>
+      </c>
+      <c r="C210" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="E210" s="2" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>210</v>
+      </c>
+      <c r="B211" t="s">
+        <v>632</v>
+      </c>
+      <c r="C211" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E211" s="2" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>211</v>
+      </c>
+      <c r="B212" t="s">
+        <v>635</v>
+      </c>
+      <c r="C212" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>212</v>
+      </c>
+      <c r="B213" t="s">
+        <v>638</v>
+      </c>
+      <c r="C213" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>213</v>
+      </c>
+      <c r="B214" t="s">
+        <v>641</v>
+      </c>
+      <c r="C214" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="E214" s="2" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>214</v>
+      </c>
+      <c r="B215" t="s">
+        <v>644</v>
+      </c>
+      <c r="C215" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="E215" s="2" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>215</v>
+      </c>
+      <c r="B216" t="s">
+        <v>647</v>
+      </c>
+      <c r="C216" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>216</v>
+      </c>
+      <c r="B217" t="s">
+        <v>650</v>
+      </c>
+      <c r="C217" s="1">
+        <v>45154</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218">
+        <v>217</v>
+      </c>
+      <c r="B218" t="s">
+        <v>653</v>
+      </c>
+      <c r="C218" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="E218" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A219">
+        <v>218</v>
+      </c>
+      <c r="B219" t="s">
+        <v>656</v>
+      </c>
+      <c r="C219" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>657</v>
+      </c>
+      <c r="E219" s="2" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220">
+        <v>219</v>
+      </c>
+      <c r="B220" t="s">
+        <v>659</v>
+      </c>
+      <c r="C220" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="E220" s="2" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221">
+        <v>220</v>
+      </c>
+      <c r="B221" t="s">
+        <v>662</v>
+      </c>
+      <c r="C221" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="E221" s="2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222">
+        <v>221</v>
+      </c>
+      <c r="B222" t="s">
+        <v>665</v>
+      </c>
+      <c r="C222" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E222" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223">
+        <v>222</v>
+      </c>
+      <c r="B223" t="s">
+        <v>668</v>
+      </c>
+      <c r="C223" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="E223" s="2" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224">
+        <v>223</v>
+      </c>
+      <c r="B224" t="s">
+        <v>671</v>
+      </c>
+      <c r="C224" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="E224" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225">
+        <v>224</v>
+      </c>
+      <c r="B225" t="s">
+        <v>674</v>
+      </c>
+      <c r="C225" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E225" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226">
+        <v>225</v>
+      </c>
+      <c r="B226" t="s">
+        <v>677</v>
+      </c>
+      <c r="C226" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="E226" s="2" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227">
+        <v>226</v>
+      </c>
+      <c r="B227" t="s">
+        <v>680</v>
+      </c>
+      <c r="C227" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="E227" s="2" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228">
+        <v>227</v>
+      </c>
+      <c r="B228" t="s">
+        <v>683</v>
+      </c>
+      <c r="C228" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229">
+        <v>228</v>
+      </c>
+      <c r="B229" t="s">
+        <v>686</v>
+      </c>
+      <c r="C229" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E229" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230">
+        <v>229</v>
+      </c>
+      <c r="B230" t="s">
+        <v>689</v>
+      </c>
+      <c r="C230" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="E230" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231">
+        <v>230</v>
+      </c>
+      <c r="B231" t="s">
+        <v>692</v>
+      </c>
+      <c r="C231" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="E231" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232">
+        <v>231</v>
+      </c>
+      <c r="B232" t="s">
+        <v>695</v>
+      </c>
+      <c r="C232" s="1">
+        <v>45155</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="E232" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  <conditionalFormatting sqref="B1 B195:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
